--- a/ACM AND RESPECTIVE TEAM LEADERS (1) (7).xlsx
+++ b/ACM AND RESPECTIVE TEAM LEADERS (1) (7).xlsx
@@ -8,27 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF52DDC-6081-418B-B6B6-8E319C8BB5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA469DC-D362-4AF1-B35D-F8280B36172E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet4" sheetId="6" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet4!$A$1:$C$234</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="221">
   <si>
     <t>acmname</t>
   </si>
@@ -105,9 +113,6 @@
     <t>Joan  Chepkoech</t>
   </si>
   <si>
-    <t>Joseph  Kangau</t>
-  </si>
-  <si>
     <t>Joyce  Atieno</t>
   </si>
   <si>
@@ -117,15 +122,9 @@
     <t>Laurine  Okeya</t>
   </si>
   <si>
-    <t>Lydia  Kinyanjui</t>
-  </si>
-  <si>
     <t>Marion  Soita</t>
   </si>
   <si>
-    <t>Phiner  Akinyi</t>
-  </si>
-  <si>
     <t>Rachael  Wanjiru</t>
   </si>
   <si>
@@ -147,24 +146,12 @@
     <t>Brian  Maina</t>
   </si>
   <si>
-    <t>George  Mwongera</t>
-  </si>
-  <si>
     <t>Mercy  Waititu</t>
   </si>
   <si>
     <t>TEAM MUGAMBI</t>
   </si>
   <si>
-    <t>Isaac  Asalikhu</t>
-  </si>
-  <si>
-    <t>Faith  Akinyi</t>
-  </si>
-  <si>
-    <t>Peninah  Wanjiku</t>
-  </si>
-  <si>
     <t>Alvin  Mbaisi</t>
   </si>
   <si>
@@ -189,9 +176,6 @@
     <t>Robinson  Wycliffe</t>
   </si>
   <si>
-    <t>Daniel  Barasa</t>
-  </si>
-  <si>
     <t>Elizabeth  Ondieki</t>
   </si>
   <si>
@@ -213,9 +197,6 @@
     <t>Doreen  Santana</t>
   </si>
   <si>
-    <t>Esther  Gesare</t>
-  </si>
-  <si>
     <t>Grace  Waigwe</t>
   </si>
   <si>
@@ -249,9 +230,6 @@
     <t>Josephat  Abigah</t>
   </si>
   <si>
-    <t>Charles  Imo</t>
-  </si>
-  <si>
     <t>Kennedy  Ochieng</t>
   </si>
   <si>
@@ -267,9 +245,6 @@
     <t>Maureen  Njoroge</t>
   </si>
   <si>
-    <t>Joshua  Ossome</t>
-  </si>
-  <si>
     <t>Daniel  Odira</t>
   </si>
   <si>
@@ -297,96 +272,18 @@
     <t>Maurice  Masaga</t>
   </si>
   <si>
-    <t>Philomena  Akulemu</t>
-  </si>
-  <si>
     <t>Lydiah  Muthoni</t>
   </si>
   <si>
     <t>Mercy  Akinyi</t>
   </si>
   <si>
-    <t>Andrew  Kapten</t>
-  </si>
-  <si>
-    <t>Michael  Osinga</t>
-  </si>
-  <si>
-    <t>Briden  Musonga</t>
-  </si>
-  <si>
-    <t>Collins  Awuor</t>
-  </si>
-  <si>
-    <t>Judith  Lukania</t>
-  </si>
-  <si>
-    <t>Vincent  Kipkirui</t>
-  </si>
-  <si>
-    <t>Sammy  Ngugi</t>
-  </si>
-  <si>
-    <t>Newton  Wawire</t>
-  </si>
-  <si>
-    <t>Raymond  Nyakundi</t>
-  </si>
-  <si>
-    <t>Joseph  Okuro</t>
-  </si>
-  <si>
-    <t>Getray  Muchele</t>
-  </si>
-  <si>
-    <t>Alex  Murimi</t>
-  </si>
-  <si>
-    <t>George  Nandwa</t>
-  </si>
-  <si>
-    <t>Teddy  Ian</t>
-  </si>
-  <si>
     <t>Teddy  Mbugua</t>
   </si>
   <si>
-    <t>Alphonce  Okoth</t>
-  </si>
-  <si>
-    <t>Monica  Amondi</t>
-  </si>
-  <si>
-    <t>Amon  Mwangi</t>
-  </si>
-  <si>
-    <t>Florence  Ayesa</t>
-  </si>
-  <si>
-    <t>Derick  Mugodo</t>
-  </si>
-  <si>
-    <t>Brian  Ambeyi</t>
-  </si>
-  <si>
-    <t>Praxides  Mukami</t>
-  </si>
-  <si>
-    <t>Godwin  Shikuku</t>
-  </si>
-  <si>
-    <t>Benard  Ouma</t>
-  </si>
-  <si>
-    <t>Emily  Mirenja</t>
-  </si>
-  <si>
     <t>Sharlen  Ayuma</t>
   </si>
   <si>
-    <t>Hellen  Njeru</t>
-  </si>
-  <si>
     <t>Jacklyn  Atieno</t>
   </si>
   <si>
@@ -402,9 +299,6 @@
     <t>Beatrice  Akinyi</t>
   </si>
   <si>
-    <t>David  Obop</t>
-  </si>
-  <si>
     <t>Defence  Mwambela</t>
   </si>
   <si>
@@ -423,9 +317,6 @@
     <t>Erick  Okoth</t>
   </si>
   <si>
-    <t>Faith  Tiren</t>
-  </si>
-  <si>
     <t>Juliana  Orwa</t>
   </si>
   <si>
@@ -477,21 +368,12 @@
     <t>Griffin  Isaac</t>
   </si>
   <si>
-    <t>Kevin  Musyimi</t>
-  </si>
-  <si>
-    <t>Linet  Koki</t>
-  </si>
-  <si>
     <t>Beatrice  Nzisa</t>
   </si>
   <si>
     <t>Phyllis  Manza</t>
   </si>
   <si>
-    <t>Purity  Miheso</t>
-  </si>
-  <si>
     <t>Ruth  Mwangi</t>
   </si>
   <si>
@@ -513,21 +395,6 @@
     <t>Neema  Achieng</t>
   </si>
   <si>
-    <t>Clementina  Muthoki</t>
-  </si>
-  <si>
-    <t>Enock  Rono</t>
-  </si>
-  <si>
-    <t>Juliet  Atieno</t>
-  </si>
-  <si>
-    <t>Philip  Soita</t>
-  </si>
-  <si>
-    <t>Lydia  Juma</t>
-  </si>
-  <si>
     <t>Christine  Ogero</t>
   </si>
   <si>
@@ -555,9 +422,6 @@
     <t>George  Onyango</t>
   </si>
   <si>
-    <t>Elizabeth  Wanjiku</t>
-  </si>
-  <si>
     <t>Purity  Rotich</t>
   </si>
   <si>
@@ -567,24 +431,9 @@
     <t>Lucy  Wahome</t>
   </si>
   <si>
-    <t>Anne  Kanja</t>
-  </si>
-  <si>
-    <t>Philemon  Kipkirui</t>
-  </si>
-  <si>
     <t>Benard  Makori</t>
   </si>
   <si>
-    <t>Violet  Lamwenya</t>
-  </si>
-  <si>
-    <t>Brian  Lemayian</t>
-  </si>
-  <si>
-    <t>Simon  Luvai</t>
-  </si>
-  <si>
     <t>Jackline  Kajuju</t>
   </si>
   <si>
@@ -627,12 +476,6 @@
     <t>VICTOR  ODHIAMBO</t>
   </si>
   <si>
-    <t>SCOVIA  OUMA</t>
-  </si>
-  <si>
-    <t>CLINTON  OMONDI</t>
-  </si>
-  <si>
     <t>BETH  GACUGI</t>
   </si>
   <si>
@@ -687,12 +530,6 @@
     <t>TRIZER  ANYANGO</t>
   </si>
   <si>
-    <t>ANNE  NJUGI</t>
-  </si>
-  <si>
-    <t>EMILLY  OLUOCH</t>
-  </si>
-  <si>
     <t>EVALYHN  JOY</t>
   </si>
   <si>
@@ -702,39 +539,15 @@
     <t>Keziah  Wambui</t>
   </si>
   <si>
-    <t>Phylis  Manza</t>
-  </si>
-  <si>
     <t>Philip  Wambugu</t>
   </si>
   <si>
-    <t>Lindrey  Sharlene</t>
-  </si>
-  <si>
     <t>Teresia  Wanjiku</t>
   </si>
   <si>
-    <t>Mercy  Waweru</t>
-  </si>
-  <si>
-    <t>Peter  Kamau</t>
-  </si>
-  <si>
     <t>Colleta  Rasugu</t>
   </si>
   <si>
-    <t>Blandine  Nekesa</t>
-  </si>
-  <si>
-    <t>Reginah  Wambui</t>
-  </si>
-  <si>
-    <t>Shadrack  Wafula</t>
-  </si>
-  <si>
-    <t>Sylvia  Ndegwa</t>
-  </si>
-  <si>
     <t>Daniel  Samuel</t>
   </si>
   <si>
@@ -744,36 +557,15 @@
     <t>Ronaldo  Kabiru</t>
   </si>
   <si>
-    <t>Cynthia  Achieng</t>
-  </si>
-  <si>
     <t>Lydiah  Achieng</t>
   </si>
   <si>
-    <t>Lilian  Wairimu</t>
-  </si>
-  <si>
-    <t>Rossette  Namayi</t>
-  </si>
-  <si>
-    <t>Loyd  Munene</t>
-  </si>
-  <si>
     <t>Purity  Simbole</t>
   </si>
   <si>
-    <t>Keith  Idambila</t>
-  </si>
-  <si>
-    <t>Pricilla  nasike</t>
-  </si>
-  <si>
     <t>John  Kariuki</t>
   </si>
   <si>
-    <t>Stephen  Kyenze</t>
-  </si>
-  <si>
     <t>James  Njoroge</t>
   </si>
   <si>
@@ -783,13 +575,130 @@
     <t>Ronald  Ouma</t>
   </si>
   <si>
-    <t>Joshua  Mishael</t>
-  </si>
-  <si>
-    <t>Caroline  Mukami</t>
-  </si>
-  <si>
     <t>TARGET</t>
+  </si>
+  <si>
+    <t>BRIDEN  MUSONGA</t>
+  </si>
+  <si>
+    <t>COLLINS  AWUOR</t>
+  </si>
+  <si>
+    <t>JUDITH  LUKANIA</t>
+  </si>
+  <si>
+    <t>VINCENT  KIPKIRUI</t>
+  </si>
+  <si>
+    <t>SAMMY  NGUGI</t>
+  </si>
+  <si>
+    <t>NEWTON  WAWIRE</t>
+  </si>
+  <si>
+    <t>RAYMOND  NYAKUNDI</t>
+  </si>
+  <si>
+    <t>GETRAY  MUCHELE</t>
+  </si>
+  <si>
+    <t>ALEX  MURIMI</t>
+  </si>
+  <si>
+    <t>GEORGE  NANDWA</t>
+  </si>
+  <si>
+    <t>TEDDY  IAN</t>
+  </si>
+  <si>
+    <t>ALPHONCE  OKOTH</t>
+  </si>
+  <si>
+    <t>MONICA  AMONDI</t>
+  </si>
+  <si>
+    <t>AMON  MWANGI</t>
+  </si>
+  <si>
+    <t>FLORENCE  AYESA</t>
+  </si>
+  <si>
+    <t>BRIAN  AMBEYI</t>
+  </si>
+  <si>
+    <t>DERICK  MUGODO</t>
+  </si>
+  <si>
+    <t>GODWIN  SHIKUKU</t>
+  </si>
+  <si>
+    <t>PRAXIDES  MUKAMI</t>
+  </si>
+  <si>
+    <t>PENINAH  WANJIKU</t>
+  </si>
+  <si>
+    <t>ISAAC  ASALIKHU</t>
+  </si>
+  <si>
+    <t>BENARD  OUMA</t>
+  </si>
+  <si>
+    <t>EMILY  MIRENJA</t>
+  </si>
+  <si>
+    <t>FAITH  AKINYI</t>
+  </si>
+  <si>
+    <t>SHADRACK  WAFULA</t>
+  </si>
+  <si>
+    <t>CLEMENTINA  MUTHOKI</t>
+  </si>
+  <si>
+    <t>ELIZABETH  WANJIKU</t>
+  </si>
+  <si>
+    <t>BLANDINE  NEKESA</t>
+  </si>
+  <si>
+    <t>REGINAH  WAMBUI</t>
+  </si>
+  <si>
+    <t>PRICILLA  NASIKE</t>
+  </si>
+  <si>
+    <t>CAROLINE  MUKAMI</t>
+  </si>
+  <si>
+    <t>JOYCE  NJOROGE</t>
+  </si>
+  <si>
+    <t>STEPHANIE  APIYO</t>
+  </si>
+  <si>
+    <t>CHRISTOPHER  MUNYWOKI</t>
+  </si>
+  <si>
+    <t>KEITH  IDAMBILA</t>
+  </si>
+  <si>
+    <t>JOSEPH  OKURO</t>
+  </si>
+  <si>
+    <t>ESTHER  GESARE</t>
+  </si>
+  <si>
+    <t>LOYD  MUNENE</t>
+  </si>
+  <si>
+    <t>STEPHEN  KYENZE</t>
+  </si>
+  <si>
+    <t>JOSHUA  MISHAEL</t>
+  </si>
+  <si>
+    <t>MERCY  WAWERU</t>
   </si>
 </sst>
 </file>
@@ -1174,18 +1083,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2939CE-E165-4FA0-A426-04DC572DCAD9}">
-  <dimension ref="A1:C241"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F3DAFF-CEE0-41A3-B271-5EFD93789172}">
+  <dimension ref="A1:C208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -1196,26 +1103,26 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>253</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>150</v>
@@ -1223,7 +1130,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1234,7 +1141,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1245,10 +1152,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>150</v>
@@ -1259,62 +1166,62 @@
         <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>150</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>150</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>150</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
       <c r="C10">
-        <v>150</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>150</v>
@@ -1322,10 +1229,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>150</v>
@@ -1333,54 +1240,54 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
       </c>
       <c r="C15">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>75</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>75</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C18">
         <v>150</v>
@@ -1388,10 +1295,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C19">
         <v>150</v>
@@ -1399,10 +1306,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20">
         <v>150</v>
@@ -1410,153 +1317,153 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>75</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22">
-        <v>75</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>75</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C24">
-        <v>75</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C25">
-        <v>75</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26">
-        <v>75</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C27">
-        <v>75</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C29">
-        <v>75</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C30">
-        <v>75</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C31">
-        <v>75</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C32">
-        <v>75</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C33">
-        <v>200</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C34">
         <v>75</v>
@@ -1564,10 +1471,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35">
         <v>75</v>
@@ -1575,43 +1482,43 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
       </c>
       <c r="C36">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C37">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C38">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C39">
         <v>100</v>
@@ -1619,21 +1526,21 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C40">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C41">
         <v>150</v>
@@ -1641,21 +1548,21 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
       </c>
       <c r="C42">
-        <v>75</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C43">
         <v>150</v>
@@ -1663,10 +1570,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C44">
         <v>150</v>
@@ -1674,10 +1581,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C45">
         <v>150</v>
@@ -1685,10 +1592,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C46">
         <v>150</v>
@@ -1696,131 +1603,131 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C47">
-        <v>150</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C48">
-        <v>150</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="B49" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C49">
-        <v>150</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="B50" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C50">
-        <v>150</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="B51" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C51">
-        <v>150</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B52" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C52">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="B53" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C53">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="B54" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C54">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="B55" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C55">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="B56" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C56">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>132</v>
+        <v>184</v>
       </c>
       <c r="B57" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C57">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>133</v>
+        <v>185</v>
       </c>
       <c r="B58" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C58">
         <v>150</v>
@@ -1828,98 +1735,98 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>134</v>
+        <v>186</v>
       </c>
       <c r="B59" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C59">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>138</v>
+        <v>187</v>
       </c>
       <c r="B60" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C60">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>144</v>
+        <v>188</v>
       </c>
       <c r="B61" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C61">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C62">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>141</v>
+        <v>190</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C63">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>142</v>
+        <v>191</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C64">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>143</v>
+        <v>192</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C65">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C66">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>147</v>
+        <v>194</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C67">
         <v>100</v>
@@ -1927,32 +1834,32 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>148</v>
+        <v>195</v>
       </c>
       <c r="B68" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="C68">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>149</v>
+        <v>196</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C69">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>106</v>
+        <v>197</v>
       </c>
       <c r="B70" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="C70">
         <v>100</v>
@@ -1960,65 +1867,65 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>150</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>3</v>
+        <v>198</v>
+      </c>
+      <c r="B71" t="s">
+        <v>37</v>
       </c>
       <c r="C71">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>151</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>6</v>
+        <v>199</v>
+      </c>
+      <c r="B72" t="s">
+        <v>37</v>
       </c>
       <c r="C72">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="B73" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="C73">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="B74" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="C74">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
       <c r="B75" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C75">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="B76" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C76">
         <v>100</v>
@@ -2026,87 +1933,87 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C77">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="B78" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="C78">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="B79" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="C79">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C80">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C81">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="C82">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C83">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="B84" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C84">
         <v>100</v>
@@ -2114,10 +2021,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="B85" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C85">
         <v>100</v>
@@ -2125,10 +2032,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="B86" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C86">
         <v>100</v>
@@ -2136,10 +2043,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="B87" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C87">
         <v>100</v>
@@ -2147,10 +2054,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="B88" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C88">
         <v>100</v>
@@ -2158,10 +2065,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>194</v>
+        <v>137</v>
       </c>
       <c r="B89" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C89">
         <v>100</v>
@@ -2169,10 +2076,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>195</v>
+        <v>138</v>
       </c>
       <c r="B90" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C90">
         <v>100</v>
@@ -2180,10 +2087,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="B91" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C91">
         <v>100</v>
@@ -2191,10 +2098,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>197</v>
+        <v>139</v>
       </c>
       <c r="B92" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C92">
         <v>100</v>
@@ -2202,10 +2109,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="B93" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C93">
         <v>100</v>
@@ -2213,10 +2120,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c r="B94" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C94">
         <v>100</v>
@@ -2224,10 +2131,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="B95" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C95">
         <v>100</v>
@@ -2235,10 +2142,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>201</v>
+        <v>143</v>
       </c>
       <c r="B96" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C96">
         <v>100</v>
@@ -2246,10 +2153,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>202</v>
+        <v>144</v>
       </c>
       <c r="B97" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C97">
         <v>100</v>
@@ -2257,10 +2164,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="B98" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C98">
         <v>100</v>
@@ -2268,10 +2175,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B99" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C99">
         <v>100</v>
@@ -2279,10 +2186,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>205</v>
+        <v>146</v>
       </c>
       <c r="B100" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C100">
         <v>100</v>
@@ -2290,10 +2197,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>206</v>
+        <v>163</v>
       </c>
       <c r="B101" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C101">
         <v>100</v>
@@ -2301,10 +2208,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>207</v>
+        <v>147</v>
       </c>
       <c r="B102" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C102">
         <v>100</v>
@@ -2312,10 +2219,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>208</v>
+        <v>148</v>
       </c>
       <c r="B103" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C103">
         <v>100</v>
@@ -2323,10 +2230,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>209</v>
+        <v>149</v>
       </c>
       <c r="B104" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C104">
         <v>100</v>
@@ -2334,10 +2241,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="B105" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C105">
         <v>100</v>
@@ -2345,10 +2252,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>211</v>
+        <v>151</v>
       </c>
       <c r="B106" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C106">
         <v>100</v>
@@ -2356,10 +2263,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>212</v>
+        <v>152</v>
       </c>
       <c r="B107" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C107">
         <v>100</v>
@@ -2367,10 +2274,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>213</v>
+        <v>153</v>
       </c>
       <c r="B108" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C108">
         <v>100</v>
@@ -2378,10 +2285,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>214</v>
+        <v>154</v>
       </c>
       <c r="B109" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C109">
         <v>100</v>
@@ -2389,10 +2296,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="B110" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C110">
         <v>100</v>
@@ -2400,10 +2307,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="B111" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C111">
         <v>100</v>
@@ -2411,10 +2318,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>217</v>
+        <v>157</v>
       </c>
       <c r="B112" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C112">
         <v>100</v>
@@ -2422,10 +2329,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="B113" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C113">
         <v>100</v>
@@ -2433,10 +2340,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>219</v>
+        <v>162</v>
       </c>
       <c r="B114" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C114">
         <v>100</v>
@@ -2444,10 +2351,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>220</v>
+        <v>159</v>
       </c>
       <c r="B115" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C115">
         <v>100</v>
@@ -2455,10 +2362,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>221</v>
+        <v>160</v>
       </c>
       <c r="B116" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C116">
         <v>100</v>
@@ -2466,10 +2373,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="B117" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C117">
         <v>150</v>
@@ -2477,62 +2384,62 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="B118" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C118">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>11</v>
+        <v>218</v>
       </c>
       <c r="B119" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C119">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="B120" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C120">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="B121" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C121">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>13</v>
+        <v>220</v>
       </c>
       <c r="B122" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C122">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B123" t="s">
         <v>12</v>
@@ -2543,7 +2450,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>222</v>
+        <v>11</v>
       </c>
       <c r="B124" t="s">
         <v>12</v>
@@ -2554,7 +2461,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B125" t="s">
         <v>12</v>
@@ -2565,7 +2472,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B126" t="s">
         <v>12</v>
@@ -2576,7 +2483,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B127" t="s">
         <v>12</v>
@@ -2587,7 +2494,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="B128" t="s">
         <v>12</v>
@@ -2598,7 +2505,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B129" t="s">
         <v>12</v>
@@ -2609,7 +2516,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B130" t="s">
         <v>12</v>
@@ -2620,7 +2527,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B131" t="s">
         <v>12</v>
@@ -2631,7 +2538,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="B132" t="s">
         <v>12</v>
@@ -2642,7 +2549,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B133" t="s">
         <v>12</v>
@@ -2653,7 +2560,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B134" t="s">
         <v>12</v>
@@ -2664,7 +2571,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B135" t="s">
         <v>12</v>
@@ -2675,7 +2582,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B136" t="s">
         <v>12</v>
@@ -2686,7 +2593,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B137" t="s">
         <v>12</v>
@@ -2697,7 +2604,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B138" t="s">
         <v>12</v>
@@ -2708,7 +2615,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B139" t="s">
         <v>12</v>
@@ -2719,7 +2626,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>223</v>
+        <v>24</v>
       </c>
       <c r="B140" t="s">
         <v>12</v>
@@ -2730,7 +2637,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B141" t="s">
         <v>12</v>
@@ -2741,7 +2648,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>28</v>
+        <v>166</v>
       </c>
       <c r="B142" t="s">
         <v>12</v>
@@ -2752,7 +2659,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>178</v>
+        <v>26</v>
       </c>
       <c r="B143" t="s">
         <v>12</v>
@@ -2763,7 +2670,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="B144" t="s">
         <v>12</v>
@@ -2774,7 +2681,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="B145" t="s">
         <v>12</v>
@@ -2785,7 +2692,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B146" t="s">
         <v>12</v>
@@ -2796,7 +2703,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B147" t="s">
         <v>12</v>
@@ -2807,7 +2714,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="B148" t="s">
         <v>12</v>
@@ -2818,7 +2725,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>180</v>
+        <v>29</v>
       </c>
       <c r="B149" t="s">
         <v>12</v>
@@ -2829,7 +2736,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>164</v>
+        <v>30</v>
       </c>
       <c r="B150" t="s">
         <v>12</v>
@@ -2840,7 +2747,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B151" t="s">
         <v>12</v>
@@ -2851,7 +2758,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>224</v>
+        <v>31</v>
       </c>
       <c r="B152" t="s">
         <v>12</v>
@@ -2862,7 +2769,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="B153" t="s">
         <v>12</v>
@@ -2873,7 +2780,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B154" t="s">
         <v>12</v>
@@ -2884,7 +2791,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="B155" t="s">
         <v>12</v>
@@ -2895,7 +2802,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>184</v>
+        <v>34</v>
       </c>
       <c r="B156" t="s">
         <v>12</v>
@@ -2906,7 +2813,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="B157" t="s">
         <v>12</v>
@@ -2917,7 +2824,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
       <c r="B158" t="s">
         <v>12</v>
@@ -2928,51 +2835,51 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="B159" t="s">
         <v>12</v>
       </c>
       <c r="C159">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="B160" t="s">
         <v>12</v>
       </c>
       <c r="C160">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="B161" t="s">
         <v>12</v>
       </c>
       <c r="C161">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="B162" t="s">
         <v>12</v>
       </c>
       <c r="C162">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="B163" t="s">
         <v>12</v>
@@ -2983,10 +2890,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="B164" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C164">
         <v>150</v>
@@ -2994,10 +2901,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="B165" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C165">
         <v>150</v>
@@ -3005,10 +2912,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="B166" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C166">
         <v>150</v>
@@ -3016,10 +2923,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="B167" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C167">
         <v>150</v>
@@ -3027,10 +2934,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="B168" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C168">
         <v>150</v>
@@ -3038,10 +2945,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>124</v>
+        <v>178</v>
       </c>
       <c r="B169" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C169">
         <v>150</v>
@@ -3049,10 +2956,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="B170" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C170">
         <v>150</v>
@@ -3060,10 +2967,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="B171" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C171">
         <v>150</v>
@@ -3071,10 +2978,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="B172" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C172">
         <v>150</v>
@@ -3082,10 +2989,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>157</v>
+        <v>50</v>
       </c>
       <c r="B173" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C173">
         <v>150</v>
@@ -3093,10 +3000,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>168</v>
+        <v>55</v>
       </c>
       <c r="B174" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C174">
         <v>150</v>
@@ -3104,10 +3011,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>169</v>
+        <v>56</v>
       </c>
       <c r="B175" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C175">
         <v>150</v>
@@ -3115,21 +3022,21 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>163</v>
+        <v>73</v>
       </c>
       <c r="B176" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C176">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="B177" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C177">
         <v>150</v>
@@ -3137,10 +3044,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>185</v>
+        <v>82</v>
       </c>
       <c r="B178" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C178">
         <v>150</v>
@@ -3148,21 +3055,21 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>101</v>
-      </c>
-      <c r="B179" t="s">
-        <v>41</v>
+        <v>110</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C179">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="B180" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="C180">
         <v>150</v>
@@ -3170,10 +3077,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c r="B181" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="C181">
         <v>100</v>
@@ -3181,101 +3088,101 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="B182" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="C182">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="B183" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="C183">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>173</v>
+        <v>83</v>
       </c>
       <c r="B184" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C184">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>174</v>
+        <v>84</v>
       </c>
       <c r="B185" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C185">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>162</v>
+        <v>85</v>
       </c>
       <c r="B186" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C186">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>152</v>
+        <v>89</v>
       </c>
       <c r="B187" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C187">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>187</v>
+        <v>90</v>
       </c>
       <c r="B188" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C188">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="B189" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="C189">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="B190" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="C190">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
@@ -3283,84 +3190,84 @@
         <v>95</v>
       </c>
       <c r="B191" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="C191">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B192" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="C192">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B193" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="C193">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B194" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="C194">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B195" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C195">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="B196" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C196">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="B197" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C197">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="B198" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C198">
         <v>100</v>
@@ -3368,32 +3275,32 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="B199" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C199">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B200" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C200">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B201" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C201">
         <v>100</v>
@@ -3401,10 +3308,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="B202" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C202">
         <v>100</v>
@@ -3415,432 +3322,68 @@
         <v>102</v>
       </c>
       <c r="B203" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C203">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B204" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C204">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B205" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C205">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B206" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C206">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="B207" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C207">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>98</v>
+        <v>174</v>
       </c>
       <c r="B208" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C208">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A209" t="s">
-        <v>161</v>
-      </c>
-      <c r="B209" t="s">
-        <v>41</v>
-      </c>
-      <c r="C209">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A210" t="s">
-        <v>93</v>
-      </c>
-      <c r="B210" t="s">
-        <v>41</v>
-      </c>
-      <c r="C210">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A211" t="s">
-        <v>113</v>
-      </c>
-      <c r="B211" t="s">
-        <v>41</v>
-      </c>
-      <c r="C211">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A212" t="s">
-        <v>100</v>
-      </c>
-      <c r="B212" t="s">
-        <v>41</v>
-      </c>
-      <c r="C212">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A213" t="s">
-        <v>105</v>
-      </c>
-      <c r="B213" t="s">
-        <v>41</v>
-      </c>
-      <c r="C213">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A214" t="s">
-        <v>225</v>
-      </c>
-      <c r="B214" t="s">
-        <v>6</v>
-      </c>
-      <c r="C214">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A215" t="s">
-        <v>226</v>
-      </c>
-      <c r="B215" t="s">
-        <v>41</v>
-      </c>
-      <c r="C215">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A216" t="s">
-        <v>227</v>
-      </c>
-      <c r="B216" t="s">
-        <v>12</v>
-      </c>
-      <c r="C216">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A217" t="s">
-        <v>228</v>
-      </c>
-      <c r="B217" t="s">
-        <v>41</v>
-      </c>
-      <c r="C217">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A218" t="s">
-        <v>229</v>
-      </c>
-      <c r="B218" t="s">
-        <v>12</v>
-      </c>
-      <c r="C218">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A219" t="s">
-        <v>230</v>
-      </c>
-      <c r="B219" t="s">
-        <v>7</v>
-      </c>
-      <c r="C219">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A220" t="s">
-        <v>231</v>
-      </c>
-      <c r="B220" t="s">
-        <v>41</v>
-      </c>
-      <c r="C220">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A221" t="s">
-        <v>232</v>
-      </c>
-      <c r="B221" t="s">
-        <v>41</v>
-      </c>
-      <c r="C221">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A222" t="s">
-        <v>233</v>
-      </c>
-      <c r="B222" t="s">
-        <v>41</v>
-      </c>
-      <c r="C222">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A223" t="s">
-        <v>234</v>
-      </c>
-      <c r="B223" t="s">
-        <v>41</v>
-      </c>
-      <c r="C223">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A224" t="s">
-        <v>235</v>
-      </c>
-      <c r="B224" t="s">
-        <v>12</v>
-      </c>
-      <c r="C224">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A225" t="s">
-        <v>236</v>
-      </c>
-      <c r="B225" t="s">
-        <v>12</v>
-      </c>
-      <c r="C225">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A226" t="s">
-        <v>237</v>
-      </c>
-      <c r="B226" t="s">
-        <v>12</v>
-      </c>
-      <c r="C226">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A227" t="s">
-        <v>238</v>
-      </c>
-      <c r="B227" t="s">
-        <v>41</v>
-      </c>
-      <c r="C227">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A228" t="s">
-        <v>239</v>
-      </c>
-      <c r="B228" t="s">
-        <v>4</v>
-      </c>
-      <c r="C228">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A229" t="s">
-        <v>240</v>
-      </c>
-      <c r="B229" t="s">
-        <v>41</v>
-      </c>
-      <c r="C229">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A230" t="s">
-        <v>241</v>
-      </c>
-      <c r="B230" t="s">
-        <v>41</v>
-      </c>
-      <c r="C230">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A231" t="s">
-        <v>242</v>
-      </c>
-      <c r="B231" t="s">
-        <v>41</v>
-      </c>
-      <c r="C231">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A232" t="s">
-        <v>243</v>
-      </c>
-      <c r="B232" t="s">
-        <v>5</v>
-      </c>
-      <c r="C232">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A233" t="s">
-        <v>244</v>
-      </c>
-      <c r="B233" t="s">
-        <v>41</v>
-      </c>
-      <c r="C233">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A234" t="s">
-        <v>245</v>
-      </c>
-      <c r="B234" t="s">
-        <v>41</v>
-      </c>
-      <c r="C234">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A235" t="s">
-        <v>246</v>
-      </c>
-      <c r="B235" t="s">
-        <v>12</v>
-      </c>
-      <c r="C235">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A236" t="s">
-        <v>247</v>
-      </c>
-      <c r="B236" t="s">
-        <v>41</v>
-      </c>
-      <c r="C236">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A237" t="s">
-        <v>248</v>
-      </c>
-      <c r="B237" t="s">
-        <v>12</v>
-      </c>
-      <c r="C237">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A238" t="s">
-        <v>249</v>
-      </c>
-      <c r="B238" t="s">
-        <v>4</v>
-      </c>
-      <c r="C238">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A239" t="s">
-        <v>250</v>
-      </c>
-      <c r="B239" t="s">
-        <v>12</v>
-      </c>
-      <c r="C239">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A240" t="s">
-        <v>251</v>
-      </c>
-      <c r="B240" t="s">
-        <v>41</v>
-      </c>
-      <c r="C240">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A241" t="s">
-        <v>252</v>
-      </c>
-      <c r="B241" t="s">
-        <v>41</v>
-      </c>
-      <c r="C241">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ACM AND RESPECTIVE TEAM LEADERS (1) (7).xlsx
+++ b/ACM AND RESPECTIVE TEAM LEADERS (1) (7).xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA469DC-D362-4AF1-B35D-F8280B36172E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6525A176-B9EB-4E7C-8555-386E9751474A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="8" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$C$208</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1086,7 +1089,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F3DAFF-CEE0-41A3-B271-5EFD93789172}">
   <dimension ref="A1:C208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1114,7 +1119,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1169,7 +1174,7 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -1180,7 +1185,7 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -1191,7 +1196,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -1202,7 +1207,7 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -1213,7 +1218,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -1257,7 +1262,7 @@
         <v>3</v>
       </c>
       <c r="C15">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -1455,7 +1460,7 @@
         <v>7</v>
       </c>
       <c r="C33">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -1466,7 +1471,7 @@
         <v>7</v>
       </c>
       <c r="C34">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
@@ -1477,7 +1482,7 @@
         <v>7</v>
       </c>
       <c r="C35">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
@@ -1488,7 +1493,7 @@
         <v>7</v>
       </c>
       <c r="C36">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -1499,7 +1504,7 @@
         <v>7</v>
       </c>
       <c r="C37">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -1510,7 +1515,7 @@
         <v>7</v>
       </c>
       <c r="C38">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -1521,7 +1526,7 @@
         <v>7</v>
       </c>
       <c r="C39">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -1532,7 +1537,7 @@
         <v>7</v>
       </c>
       <c r="C40">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -1609,7 +1614,7 @@
         <v>10</v>
       </c>
       <c r="C47">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -1620,7 +1625,7 @@
         <v>8</v>
       </c>
       <c r="C48">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -1631,7 +1636,7 @@
         <v>8</v>
       </c>
       <c r="C49">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -1642,7 +1647,7 @@
         <v>8</v>
       </c>
       <c r="C50">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -1653,7 +1658,7 @@
         <v>8</v>
       </c>
       <c r="C51">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
@@ -1664,7 +1669,7 @@
         <v>8</v>
       </c>
       <c r="C52">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
@@ -1675,7 +1680,7 @@
         <v>37</v>
       </c>
       <c r="C53">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -1686,7 +1691,7 @@
         <v>37</v>
       </c>
       <c r="C54">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
@@ -1697,7 +1702,7 @@
         <v>37</v>
       </c>
       <c r="C55">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
@@ -1708,7 +1713,7 @@
         <v>37</v>
       </c>
       <c r="C56">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
@@ -1719,7 +1724,7 @@
         <v>37</v>
       </c>
       <c r="C57">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
@@ -1741,7 +1746,7 @@
         <v>37</v>
       </c>
       <c r="C59">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
@@ -1752,7 +1757,7 @@
         <v>37</v>
       </c>
       <c r="C60">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
@@ -1763,7 +1768,7 @@
         <v>37</v>
       </c>
       <c r="C61">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
@@ -1774,7 +1779,7 @@
         <v>37</v>
       </c>
       <c r="C62">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
@@ -1785,7 +1790,7 @@
         <v>37</v>
       </c>
       <c r="C63">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
@@ -1796,7 +1801,7 @@
         <v>37</v>
       </c>
       <c r="C64">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
@@ -1807,7 +1812,7 @@
         <v>37</v>
       </c>
       <c r="C65">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
@@ -1818,7 +1823,7 @@
         <v>37</v>
       </c>
       <c r="C66">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
@@ -1829,7 +1834,7 @@
         <v>37</v>
       </c>
       <c r="C67">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
@@ -1840,7 +1845,7 @@
         <v>37</v>
       </c>
       <c r="C68">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
@@ -1851,7 +1856,7 @@
         <v>37</v>
       </c>
       <c r="C69">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
@@ -1862,7 +1867,7 @@
         <v>37</v>
       </c>
       <c r="C70">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
@@ -1873,7 +1878,7 @@
         <v>37</v>
       </c>
       <c r="C71">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
@@ -1884,7 +1889,7 @@
         <v>37</v>
       </c>
       <c r="C72">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
@@ -1895,7 +1900,7 @@
         <v>37</v>
       </c>
       <c r="C73">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
@@ -1906,7 +1911,7 @@
         <v>37</v>
       </c>
       <c r="C74">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
@@ -1917,7 +1922,7 @@
         <v>37</v>
       </c>
       <c r="C75">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
@@ -1928,7 +1933,7 @@
         <v>37</v>
       </c>
       <c r="C76">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
@@ -1939,7 +1944,7 @@
         <v>37</v>
       </c>
       <c r="C77">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
@@ -1950,7 +1955,7 @@
         <v>37</v>
       </c>
       <c r="C78">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
@@ -1961,7 +1966,7 @@
         <v>37</v>
       </c>
       <c r="C79">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
@@ -1972,7 +1977,7 @@
         <v>37</v>
       </c>
       <c r="C80">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
@@ -1983,7 +1988,7 @@
         <v>37</v>
       </c>
       <c r="C81">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
@@ -1994,7 +1999,7 @@
         <v>37</v>
       </c>
       <c r="C82">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
@@ -2005,7 +2010,7 @@
         <v>37</v>
       </c>
       <c r="C83">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
@@ -2016,7 +2021,7 @@
         <v>37</v>
       </c>
       <c r="C84">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
@@ -2027,7 +2032,7 @@
         <v>37</v>
       </c>
       <c r="C85">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
@@ -2038,7 +2043,7 @@
         <v>37</v>
       </c>
       <c r="C86">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
@@ -2049,7 +2054,7 @@
         <v>37</v>
       </c>
       <c r="C87">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
@@ -2060,7 +2065,7 @@
         <v>37</v>
       </c>
       <c r="C88">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
@@ -2071,7 +2076,7 @@
         <v>37</v>
       </c>
       <c r="C89">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
@@ -2082,7 +2087,7 @@
         <v>37</v>
       </c>
       <c r="C90">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
@@ -2093,7 +2098,7 @@
         <v>37</v>
       </c>
       <c r="C91">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
@@ -2104,7 +2109,7 @@
         <v>37</v>
       </c>
       <c r="C92">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
@@ -2115,7 +2120,7 @@
         <v>37</v>
       </c>
       <c r="C93">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
@@ -2126,7 +2131,7 @@
         <v>37</v>
       </c>
       <c r="C94">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
@@ -2137,7 +2142,7 @@
         <v>37</v>
       </c>
       <c r="C95">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
@@ -2148,7 +2153,7 @@
         <v>37</v>
       </c>
       <c r="C96">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
@@ -2159,7 +2164,7 @@
         <v>37</v>
       </c>
       <c r="C97">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
@@ -2170,7 +2175,7 @@
         <v>37</v>
       </c>
       <c r="C98">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
@@ -2181,7 +2186,7 @@
         <v>37</v>
       </c>
       <c r="C99">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
@@ -2192,7 +2197,7 @@
         <v>37</v>
       </c>
       <c r="C100">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
@@ -2203,7 +2208,7 @@
         <v>37</v>
       </c>
       <c r="C101">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
@@ -2214,7 +2219,7 @@
         <v>37</v>
       </c>
       <c r="C102">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
@@ -2225,7 +2230,7 @@
         <v>37</v>
       </c>
       <c r="C103">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
@@ -2236,7 +2241,7 @@
         <v>37</v>
       </c>
       <c r="C104">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
@@ -2247,7 +2252,7 @@
         <v>37</v>
       </c>
       <c r="C105">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
@@ -2258,7 +2263,7 @@
         <v>37</v>
       </c>
       <c r="C106">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
@@ -2269,7 +2274,7 @@
         <v>37</v>
       </c>
       <c r="C107">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
@@ -2280,7 +2285,7 @@
         <v>37</v>
       </c>
       <c r="C108">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
@@ -2291,7 +2296,7 @@
         <v>37</v>
       </c>
       <c r="C109">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
@@ -2302,7 +2307,7 @@
         <v>37</v>
       </c>
       <c r="C110">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
@@ -2313,7 +2318,7 @@
         <v>37</v>
       </c>
       <c r="C111">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
@@ -2324,7 +2329,7 @@
         <v>37</v>
       </c>
       <c r="C112">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
@@ -2335,7 +2340,7 @@
         <v>37</v>
       </c>
       <c r="C113">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
@@ -2346,7 +2351,7 @@
         <v>37</v>
       </c>
       <c r="C114">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
@@ -2357,7 +2362,7 @@
         <v>37</v>
       </c>
       <c r="C115">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
@@ -2368,7 +2373,7 @@
         <v>37</v>
       </c>
       <c r="C116">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
@@ -2390,7 +2395,7 @@
         <v>37</v>
       </c>
       <c r="C118">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
@@ -2401,7 +2406,7 @@
         <v>37</v>
       </c>
       <c r="C119">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
@@ -2412,7 +2417,7 @@
         <v>37</v>
       </c>
       <c r="C120">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
@@ -2423,7 +2428,7 @@
         <v>37</v>
       </c>
       <c r="C121">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
@@ -2434,7 +2439,7 @@
         <v>37</v>
       </c>
       <c r="C122">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
@@ -2841,7 +2846,7 @@
         <v>12</v>
       </c>
       <c r="C159">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
@@ -2852,7 +2857,7 @@
         <v>12</v>
       </c>
       <c r="C160">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
@@ -2863,7 +2868,7 @@
         <v>12</v>
       </c>
       <c r="C161">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
@@ -2874,7 +2879,7 @@
         <v>12</v>
       </c>
       <c r="C162">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
@@ -3028,7 +3033,7 @@
         <v>6</v>
       </c>
       <c r="C176">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.35">
@@ -3083,7 +3088,7 @@
         <v>6</v>
       </c>
       <c r="C181">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.35">
@@ -3270,7 +3275,7 @@
         <v>5</v>
       </c>
       <c r="C198">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.35">
@@ -3303,7 +3308,7 @@
         <v>5</v>
       </c>
       <c r="C201">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.35">
@@ -3314,7 +3319,7 @@
         <v>5</v>
       </c>
       <c r="C202">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.35">

--- a/ACM AND RESPECTIVE TEAM LEADERS (1) (7).xlsx
+++ b/ACM AND RESPECTIVE TEAM LEADERS (1) (7).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6525A176-B9EB-4E7C-8555-386E9751474A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9C6C0A-7303-4051-A41F-20736B0C376C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="8" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$C$208</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$C$207</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="220">
   <si>
     <t>acmname</t>
   </si>
@@ -155,6 +155,15 @@
     <t>TEAM MUGAMBI</t>
   </si>
   <si>
+    <t>Isaac  Asalikhu</t>
+  </si>
+  <si>
+    <t>Faith  Akinyi</t>
+  </si>
+  <si>
+    <t>Peninah  Wanjiku</t>
+  </si>
+  <si>
     <t>Alvin  Mbaisi</t>
   </si>
   <si>
@@ -200,6 +209,9 @@
     <t>Doreen  Santana</t>
   </si>
   <si>
+    <t>Esther  Gesare</t>
+  </si>
+  <si>
     <t>Grace  Waigwe</t>
   </si>
   <si>
@@ -281,9 +293,75 @@
     <t>Mercy  Akinyi</t>
   </si>
   <si>
+    <t>Briden  Musonga</t>
+  </si>
+  <si>
+    <t>Collins  Awuor</t>
+  </si>
+  <si>
+    <t>Judith  Lukania</t>
+  </si>
+  <si>
+    <t>Vincent  Kipkirui</t>
+  </si>
+  <si>
+    <t>Sammy  Ngugi</t>
+  </si>
+  <si>
+    <t>Newton  Wawire</t>
+  </si>
+  <si>
+    <t>Raymond  Nyakundi</t>
+  </si>
+  <si>
+    <t>Joseph  Okuro</t>
+  </si>
+  <si>
+    <t>Getray  Muchele</t>
+  </si>
+  <si>
+    <t>Alex  Murimi</t>
+  </si>
+  <si>
+    <t>George  Nandwa</t>
+  </si>
+  <si>
+    <t>Teddy  Ian</t>
+  </si>
+  <si>
     <t>Teddy  Mbugua</t>
   </si>
   <si>
+    <t>Alphonce  Okoth</t>
+  </si>
+  <si>
+    <t>Monica  Amondi</t>
+  </si>
+  <si>
+    <t>Amon  Mwangi</t>
+  </si>
+  <si>
+    <t>Florence  Ayesa</t>
+  </si>
+  <si>
+    <t>Derick  Mugodo</t>
+  </si>
+  <si>
+    <t>Brian  Ambeyi</t>
+  </si>
+  <si>
+    <t>Praxides  Mukami</t>
+  </si>
+  <si>
+    <t>Godwin  Shikuku</t>
+  </si>
+  <si>
+    <t>Benard  Ouma</t>
+  </si>
+  <si>
+    <t>Emily  Mirenja</t>
+  </si>
+  <si>
     <t>Sharlen  Ayuma</t>
   </si>
   <si>
@@ -398,6 +476,9 @@
     <t>Neema  Achieng</t>
   </si>
   <si>
+    <t>Clementina  Muthoki</t>
+  </si>
+  <si>
     <t>Christine  Ogero</t>
   </si>
   <si>
@@ -425,6 +506,9 @@
     <t>George  Onyango</t>
   </si>
   <si>
+    <t>Elizabeth  Wanjiku</t>
+  </si>
+  <si>
     <t>Purity  Rotich</t>
   </si>
   <si>
@@ -449,93 +533,6 @@
     <t>Brian  Kitui</t>
   </si>
   <si>
-    <t>KELVIN  SOKO</t>
-  </si>
-  <si>
-    <t>CHRISTINE  WAWIRA</t>
-  </si>
-  <si>
-    <t>RAHAB  WANGECHI</t>
-  </si>
-  <si>
-    <t>KELVIN  NYIKA</t>
-  </si>
-  <si>
-    <t>PHILOMENA  WOKI</t>
-  </si>
-  <si>
-    <t>MARTHA  BOSIBORI</t>
-  </si>
-  <si>
-    <t>SIMON  WANYOIKE</t>
-  </si>
-  <si>
-    <t>BENARD  NJOROGE</t>
-  </si>
-  <si>
-    <t>JAPHETH  KIBET</t>
-  </si>
-  <si>
-    <t>VICTOR  ODHIAMBO</t>
-  </si>
-  <si>
-    <t>BETH  GACUGI</t>
-  </si>
-  <si>
-    <t>CONRAD  MULAMA</t>
-  </si>
-  <si>
-    <t>SHARLY  OTIENO</t>
-  </si>
-  <si>
-    <t>MONICAH  LAUZI</t>
-  </si>
-  <si>
-    <t>BILLY  BRIAN</t>
-  </si>
-  <si>
-    <t>CORNELIUS  KISANYA</t>
-  </si>
-  <si>
-    <t>BENADETTE  WANJIRU</t>
-  </si>
-  <si>
-    <t>PRISCIA  ACHOLA</t>
-  </si>
-  <si>
-    <t>JEANNE  ALTMANN</t>
-  </si>
-  <si>
-    <t>SARAH  NJOKI</t>
-  </si>
-  <si>
-    <t>ROSELYNE  MBUTO</t>
-  </si>
-  <si>
-    <t>CECILIA  AMOLO</t>
-  </si>
-  <si>
-    <t>EMILY  GISEMBA</t>
-  </si>
-  <si>
-    <t>HANCHE  KANCHORA</t>
-  </si>
-  <si>
-    <t>DORCAS  KEMUNTO</t>
-  </si>
-  <si>
-    <t>FAITH  GRACE</t>
-  </si>
-  <si>
-    <t>MARION  WAFULA</t>
-  </si>
-  <si>
-    <t>TRIZER  ANYANGO</t>
-  </si>
-  <si>
-    <t>EVALYHN  JOY</t>
-  </si>
-  <si>
     <t>Danielson  Owino</t>
   </si>
   <si>
@@ -548,9 +545,21 @@
     <t>Teresia  Wanjiku</t>
   </si>
   <si>
+    <t>Mercy  Waweru</t>
+  </si>
+  <si>
     <t>Colleta  Rasugu</t>
   </si>
   <si>
+    <t>Blandine  Nekesa</t>
+  </si>
+  <si>
+    <t>Reginah  Wambui</t>
+  </si>
+  <si>
+    <t>Shadrack  Wafula</t>
+  </si>
+  <si>
     <t>Daniel  Samuel</t>
   </si>
   <si>
@@ -563,12 +572,21 @@
     <t>Lydiah  Achieng</t>
   </si>
   <si>
+    <t>Loyd  Munene</t>
+  </si>
+  <si>
     <t>Purity  Simbole</t>
   </si>
   <si>
+    <t>Keith  Idambila</t>
+  </si>
+  <si>
     <t>John  Kariuki</t>
   </si>
   <si>
+    <t>Stephen  Kyenze</t>
+  </si>
+  <si>
     <t>James  Njoroge</t>
   </si>
   <si>
@@ -578,130 +596,109 @@
     <t>Ronald  Ouma</t>
   </si>
   <si>
+    <t>Joshua  Mishael</t>
+  </si>
+  <si>
+    <t>Caroline  Mukami</t>
+  </si>
+  <si>
     <t>TARGET</t>
   </si>
   <si>
-    <t>BRIDEN  MUSONGA</t>
-  </si>
-  <si>
-    <t>COLLINS  AWUOR</t>
-  </si>
-  <si>
-    <t>JUDITH  LUKANIA</t>
-  </si>
-  <si>
-    <t>VINCENT  KIPKIRUI</t>
-  </si>
-  <si>
-    <t>SAMMY  NGUGI</t>
-  </si>
-  <si>
-    <t>NEWTON  WAWIRE</t>
-  </si>
-  <si>
-    <t>RAYMOND  NYAKUNDI</t>
-  </si>
-  <si>
-    <t>GETRAY  MUCHELE</t>
-  </si>
-  <si>
-    <t>ALEX  MURIMI</t>
-  </si>
-  <si>
-    <t>GEORGE  NANDWA</t>
-  </si>
-  <si>
-    <t>TEDDY  IAN</t>
-  </si>
-  <si>
-    <t>ALPHONCE  OKOTH</t>
-  </si>
-  <si>
-    <t>MONICA  AMONDI</t>
-  </si>
-  <si>
-    <t>AMON  MWANGI</t>
-  </si>
-  <si>
-    <t>FLORENCE  AYESA</t>
-  </si>
-  <si>
-    <t>BRIAN  AMBEYI</t>
-  </si>
-  <si>
-    <t>DERICK  MUGODO</t>
-  </si>
-  <si>
-    <t>GODWIN  SHIKUKU</t>
-  </si>
-  <si>
-    <t>PRAXIDES  MUKAMI</t>
-  </si>
-  <si>
-    <t>PENINAH  WANJIKU</t>
-  </si>
-  <si>
-    <t>ISAAC  ASALIKHU</t>
-  </si>
-  <si>
-    <t>BENARD  OUMA</t>
-  </si>
-  <si>
-    <t>EMILY  MIRENJA</t>
-  </si>
-  <si>
-    <t>FAITH  AKINYI</t>
-  </si>
-  <si>
-    <t>SHADRACK  WAFULA</t>
-  </si>
-  <si>
-    <t>CLEMENTINA  MUTHOKI</t>
-  </si>
-  <si>
-    <t>ELIZABETH  WANJIKU</t>
-  </si>
-  <si>
-    <t>BLANDINE  NEKESA</t>
-  </si>
-  <si>
-    <t>REGINAH  WAMBUI</t>
-  </si>
-  <si>
-    <t>PRICILLA  NASIKE</t>
-  </si>
-  <si>
-    <t>CAROLINE  MUKAMI</t>
-  </si>
-  <si>
-    <t>JOYCE  NJOROGE</t>
-  </si>
-  <si>
-    <t>STEPHANIE  APIYO</t>
-  </si>
-  <si>
-    <t>CHRISTOPHER  MUNYWOKI</t>
-  </si>
-  <si>
-    <t>KEITH  IDAMBILA</t>
-  </si>
-  <si>
-    <t>JOSEPH  OKURO</t>
-  </si>
-  <si>
-    <t>ESTHER  GESARE</t>
-  </si>
-  <si>
-    <t>LOYD  MUNENE</t>
-  </si>
-  <si>
-    <t>STEPHEN  KYENZE</t>
-  </si>
-  <si>
-    <t>JOSHUA  MISHAEL</t>
-  </si>
-  <si>
-    <t>MERCY  WAWERU</t>
+    <t>Pricilla  Nasike</t>
+  </si>
+  <si>
+    <t>Joyce  Njoroge</t>
+  </si>
+  <si>
+    <t>Stephanie  Apiyo</t>
+  </si>
+  <si>
+    <t>Christopher  Munywoki</t>
+  </si>
+  <si>
+    <t>Kelvin  Soko</t>
+  </si>
+  <si>
+    <t>Christine  Wawira</t>
+  </si>
+  <si>
+    <t>Rahab  Wangechi</t>
+  </si>
+  <si>
+    <t>Kelvin  Nyika</t>
+  </si>
+  <si>
+    <t>Philomena  Woki</t>
+  </si>
+  <si>
+    <t>Martha  Bosibori</t>
+  </si>
+  <si>
+    <t>Simon  Wanyoike</t>
+  </si>
+  <si>
+    <t>Benard  Njoroge</t>
+  </si>
+  <si>
+    <t>Japheth  Kibet</t>
+  </si>
+  <si>
+    <t>Victor  Odhiambo</t>
+  </si>
+  <si>
+    <t>Beth  Gacugi</t>
+  </si>
+  <si>
+    <t>Trizer  Anyango</t>
+  </si>
+  <si>
+    <t>Conrad  Mulama</t>
+  </si>
+  <si>
+    <t>Sharly  Otieno</t>
+  </si>
+  <si>
+    <t>Monicah  Lauzi</t>
+  </si>
+  <si>
+    <t>Billy  Brian</t>
+  </si>
+  <si>
+    <t>Cornelius  Kisanya</t>
+  </si>
+  <si>
+    <t>Benadette  Wanjiru</t>
+  </si>
+  <si>
+    <t>Priscia  Achola</t>
+  </si>
+  <si>
+    <t>Jeanne  Altmann</t>
+  </si>
+  <si>
+    <t>Sarah  Njoki</t>
+  </si>
+  <si>
+    <t>Roselyne  Mbuto</t>
+  </si>
+  <si>
+    <t>Cecilia  Amolo</t>
+  </si>
+  <si>
+    <t>Emily  Gisemba</t>
+  </si>
+  <si>
+    <t>Marion  Wafula</t>
+  </si>
+  <si>
+    <t>Hanche  Kanchora</t>
+  </si>
+  <si>
+    <t>Dorcas  Kemunto</t>
+  </si>
+  <si>
+    <t>Faith  Grace</t>
   </si>
 </sst>
 </file>
@@ -777,7 +774,26 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{64F361DC-43B7-4CC1-B2FE-C0957E5AFFF7}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{5BECB51E-0CC2-4DEE-AC78-4BDE9C9415A0}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1087,10 +1103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F3DAFF-CEE0-41A3-B271-5EFD93789172}">
-  <dimension ref="A1:C208"/>
+  <dimension ref="A1:C207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1108,12 +1124,12 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -1124,7 +1140,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1135,7 +1151,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1146,7 +1162,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1157,7 +1173,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1168,7 +1184,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1179,7 +1195,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1190,7 +1206,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1201,7 +1217,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1212,7 +1228,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1223,7 +1239,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1234,7 +1250,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1245,7 +1261,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -1256,7 +1272,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -1267,7 +1283,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -1278,7 +1294,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -1289,7 +1305,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -1300,7 +1316,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -1311,7 +1327,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -1322,7 +1338,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
@@ -1333,7 +1349,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
@@ -1344,7 +1360,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
@@ -1355,7 +1371,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
@@ -1366,7 +1382,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="B25" t="s">
         <v>4</v>
@@ -1377,7 +1393,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
@@ -1388,7 +1404,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
@@ -1399,7 +1415,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
@@ -1410,7 +1426,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="B29" t="s">
         <v>4</v>
@@ -1421,7 +1437,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
@@ -1432,7 +1448,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
@@ -1443,7 +1459,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
@@ -1454,7 +1470,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
@@ -1465,7 +1481,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
@@ -1476,7 +1492,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
@@ -1487,7 +1503,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
@@ -1498,7 +1514,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
@@ -1509,7 +1525,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
@@ -1520,7 +1536,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
@@ -1531,7 +1547,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
@@ -1542,7 +1558,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
@@ -1553,7 +1569,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
@@ -1564,7 +1580,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
@@ -1575,7 +1591,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
@@ -1586,7 +1602,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
@@ -1608,7 +1624,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B47" t="s">
         <v>10</v>
@@ -1619,7 +1635,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
@@ -1630,7 +1646,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
@@ -1641,7 +1657,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
@@ -1652,7 +1668,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
@@ -1663,18 +1679,18 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
       </c>
       <c r="C52">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>180</v>
+        <v>84</v>
       </c>
       <c r="B53" t="s">
         <v>37</v>
@@ -1685,7 +1701,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>181</v>
+        <v>85</v>
       </c>
       <c r="B54" t="s">
         <v>37</v>
@@ -1696,7 +1712,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>182</v>
+        <v>86</v>
       </c>
       <c r="B55" t="s">
         <v>37</v>
@@ -1707,7 +1723,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>183</v>
+        <v>87</v>
       </c>
       <c r="B56" t="s">
         <v>37</v>
@@ -1718,7 +1734,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>184</v>
+        <v>88</v>
       </c>
       <c r="B57" t="s">
         <v>37</v>
@@ -1729,7 +1745,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>185</v>
+        <v>89</v>
       </c>
       <c r="B58" t="s">
         <v>37</v>
@@ -1740,7 +1756,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
       <c r="B59" t="s">
         <v>37</v>
@@ -1751,7 +1767,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>187</v>
+        <v>92</v>
       </c>
       <c r="B60" t="s">
         <v>37</v>
@@ -1762,7 +1778,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>188</v>
+        <v>93</v>
       </c>
       <c r="B61" t="s">
         <v>37</v>
@@ -1773,7 +1789,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>189</v>
+        <v>94</v>
       </c>
       <c r="B62" t="s">
         <v>37</v>
@@ -1784,7 +1800,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="B63" t="s">
         <v>37</v>
@@ -1795,7 +1811,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>191</v>
+        <v>97</v>
       </c>
       <c r="B64" t="s">
         <v>37</v>
@@ -1806,7 +1822,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>192</v>
+        <v>98</v>
       </c>
       <c r="B65" t="s">
         <v>37</v>
@@ -1817,7 +1833,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>193</v>
+        <v>99</v>
       </c>
       <c r="B66" t="s">
         <v>37</v>
@@ -1828,7 +1844,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="B67" t="s">
         <v>37</v>
@@ -1839,7 +1855,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>195</v>
+        <v>102</v>
       </c>
       <c r="B68" t="s">
         <v>37</v>
@@ -1850,7 +1866,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>196</v>
+        <v>101</v>
       </c>
       <c r="B69" t="s">
         <v>37</v>
@@ -1861,7 +1877,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>197</v>
+        <v>104</v>
       </c>
       <c r="B70" t="s">
         <v>37</v>
@@ -1872,7 +1888,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>198</v>
+        <v>103</v>
       </c>
       <c r="B71" t="s">
         <v>37</v>
@@ -1883,7 +1899,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c r="B72" t="s">
         <v>37</v>
@@ -1894,7 +1910,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>200</v>
+        <v>38</v>
       </c>
       <c r="B73" t="s">
         <v>37</v>
@@ -1905,7 +1921,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>201</v>
+        <v>105</v>
       </c>
       <c r="B74" t="s">
         <v>37</v>
@@ -1916,7 +1932,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>202</v>
+        <v>106</v>
       </c>
       <c r="B75" t="s">
         <v>37</v>
@@ -1927,7 +1943,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>203</v>
+        <v>39</v>
       </c>
       <c r="B76" t="s">
         <v>37</v>
@@ -1938,7 +1954,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="B77" t="s">
         <v>37</v>
@@ -1949,7 +1965,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>205</v>
+        <v>145</v>
       </c>
       <c r="B78" t="s">
         <v>37</v>
@@ -1960,7 +1976,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>206</v>
+        <v>155</v>
       </c>
       <c r="B79" t="s">
         <v>37</v>
@@ -1971,7 +1987,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="B80" t="s">
         <v>37</v>
@@ -1982,7 +1998,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="B81" t="s">
         <v>37</v>
@@ -1993,7 +2009,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="B82" t="s">
         <v>37</v>
@@ -2004,7 +2020,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="B83" t="s">
         <v>37</v>
@@ -2015,7 +2031,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="B84" t="s">
         <v>37</v>
@@ -2026,7 +2042,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="B85" t="s">
         <v>37</v>
@@ -2037,7 +2053,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="B86" t="s">
         <v>37</v>
@@ -2048,7 +2064,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="B87" t="s">
         <v>37</v>
@@ -2059,7 +2075,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>136</v>
+        <v>192</v>
       </c>
       <c r="B88" t="s">
         <v>37</v>
@@ -2070,7 +2086,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="B89" t="s">
         <v>37</v>
@@ -2081,7 +2097,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="B90" t="s">
         <v>37</v>
@@ -2092,7 +2108,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>215</v>
+        <v>91</v>
       </c>
       <c r="B91" t="s">
         <v>37</v>
@@ -2103,7 +2119,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>139</v>
+        <v>195</v>
       </c>
       <c r="B92" t="s">
         <v>37</v>
@@ -2114,7 +2130,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>140</v>
+        <v>196</v>
       </c>
       <c r="B93" t="s">
         <v>37</v>
@@ -2125,7 +2141,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c r="B94" t="s">
         <v>37</v>
@@ -2136,7 +2152,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>142</v>
+        <v>198</v>
       </c>
       <c r="B95" t="s">
         <v>37</v>
@@ -2147,7 +2163,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>143</v>
+        <v>199</v>
       </c>
       <c r="B96" t="s">
         <v>37</v>
@@ -2158,7 +2174,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
       <c r="B97" t="s">
         <v>37</v>
@@ -2169,7 +2185,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="B98" t="s">
         <v>37</v>
@@ -2180,7 +2196,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>216</v>
+        <v>56</v>
       </c>
       <c r="B99" t="s">
         <v>37</v>
@@ -2191,7 +2207,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="B100" t="s">
         <v>37</v>
@@ -2202,7 +2218,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="B101" t="s">
         <v>37</v>
@@ -2213,7 +2229,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>147</v>
+        <v>204</v>
       </c>
       <c r="B102" t="s">
         <v>37</v>
@@ -2224,7 +2240,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>148</v>
+        <v>205</v>
       </c>
       <c r="B103" t="s">
         <v>37</v>
@@ -2235,7 +2251,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>149</v>
+        <v>206</v>
       </c>
       <c r="B104" t="s">
         <v>37</v>
@@ -2246,7 +2262,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>150</v>
+        <v>207</v>
       </c>
       <c r="B105" t="s">
         <v>37</v>
@@ -2257,7 +2273,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>151</v>
+        <v>208</v>
       </c>
       <c r="B106" t="s">
         <v>37</v>
@@ -2268,7 +2284,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>152</v>
+        <v>209</v>
       </c>
       <c r="B107" t="s">
         <v>37</v>
@@ -2279,7 +2295,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
       <c r="B108" t="s">
         <v>37</v>
@@ -2290,7 +2306,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="B109" t="s">
         <v>37</v>
@@ -2301,7 +2317,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="B110" t="s">
         <v>37</v>
@@ -2312,7 +2328,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="B111" t="s">
         <v>37</v>
@@ -2323,7 +2339,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>157</v>
+        <v>214</v>
       </c>
       <c r="B112" t="s">
         <v>37</v>
@@ -2334,7 +2350,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="B113" t="s">
         <v>37</v>
@@ -2345,7 +2361,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="B114" t="s">
         <v>37</v>
@@ -2356,7 +2372,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>159</v>
+        <v>217</v>
       </c>
       <c r="B115" t="s">
         <v>37</v>
@@ -2367,7 +2383,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="B116" t="s">
         <v>37</v>
@@ -2378,7 +2394,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="B117" t="s">
         <v>37</v>
@@ -2389,7 +2405,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="B118" t="s">
         <v>37</v>
@@ -2400,7 +2416,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="B119" t="s">
         <v>37</v>
@@ -2422,7 +2438,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B121" t="s">
         <v>37</v>
@@ -2433,10 +2449,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>220</v>
+        <v>41</v>
       </c>
       <c r="B122" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C122">
         <v>150</v>
@@ -2444,7 +2460,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B123" t="s">
         <v>12</v>
@@ -2455,7 +2471,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B124" t="s">
         <v>12</v>
@@ -2466,7 +2482,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B125" t="s">
         <v>12</v>
@@ -2477,7 +2493,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B126" t="s">
         <v>12</v>
@@ -2488,7 +2504,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="B127" t="s">
         <v>12</v>
@@ -2499,7 +2515,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>165</v>
+        <v>15</v>
       </c>
       <c r="B128" t="s">
         <v>12</v>
@@ -2510,7 +2526,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B129" t="s">
         <v>12</v>
@@ -2521,7 +2537,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B130" t="s">
         <v>12</v>
@@ -2532,7 +2548,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="B131" t="s">
         <v>12</v>
@@ -2543,7 +2559,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="B132" t="s">
         <v>12</v>
@@ -2554,7 +2570,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B133" t="s">
         <v>12</v>
@@ -2565,7 +2581,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B134" t="s">
         <v>12</v>
@@ -2576,7 +2592,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B135" t="s">
         <v>12</v>
@@ -2587,7 +2603,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B136" t="s">
         <v>12</v>
@@ -2598,7 +2614,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B137" t="s">
         <v>12</v>
@@ -2609,7 +2625,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B138" t="s">
         <v>12</v>
@@ -2620,7 +2636,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B139" t="s">
         <v>12</v>
@@ -2631,7 +2647,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B140" t="s">
         <v>12</v>
@@ -2642,7 +2658,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="B141" t="s">
         <v>12</v>
@@ -2653,7 +2669,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="B142" t="s">
         <v>12</v>
@@ -2664,7 +2680,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B143" t="s">
         <v>12</v>
@@ -2675,7 +2691,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>27</v>
+        <v>158</v>
       </c>
       <c r="B144" t="s">
         <v>12</v>
@@ -2686,7 +2702,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B145" t="s">
         <v>12</v>
@@ -2697,7 +2713,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B146" t="s">
         <v>12</v>
@@ -2708,7 +2724,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="B147" t="s">
         <v>12</v>
@@ -2719,7 +2735,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="B148" t="s">
         <v>12</v>
@@ -2730,7 +2746,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B149" t="s">
         <v>12</v>
@@ -2741,7 +2757,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B150" t="s">
         <v>12</v>
@@ -2752,7 +2768,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B151" t="s">
         <v>12</v>
@@ -2763,7 +2779,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>31</v>
+        <v>161</v>
       </c>
       <c r="B152" t="s">
         <v>12</v>
@@ -2774,7 +2790,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="B153" t="s">
         <v>12</v>
@@ -2785,7 +2801,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="B154" t="s">
         <v>12</v>
@@ -2796,7 +2812,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="B155" t="s">
         <v>12</v>
@@ -2807,7 +2823,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="B156" t="s">
         <v>12</v>
@@ -2818,7 +2834,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="B157" t="s">
         <v>12</v>
@@ -2829,7 +2845,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="B158" t="s">
         <v>12</v>
@@ -2840,7 +2856,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="B159" t="s">
         <v>12</v>
@@ -2851,7 +2867,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B160" t="s">
         <v>12</v>
@@ -2862,7 +2878,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="B161" t="s">
         <v>12</v>
@@ -2873,7 +2889,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="B162" t="s">
         <v>12</v>
@@ -2884,7 +2900,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B163" t="s">
         <v>12</v>
@@ -2895,7 +2911,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B164" t="s">
         <v>12</v>
@@ -2906,7 +2922,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B165" t="s">
         <v>12</v>
@@ -2917,7 +2933,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B166" t="s">
         <v>12</v>
@@ -2928,7 +2944,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B167" t="s">
         <v>12</v>
@@ -2939,7 +2955,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B168" t="s">
         <v>12</v>
@@ -2950,10 +2966,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>178</v>
+        <v>47</v>
       </c>
       <c r="B169" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C169">
         <v>150</v>
@@ -2961,7 +2977,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B170" t="s">
         <v>6</v>
@@ -2972,7 +2988,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B171" t="s">
         <v>6</v>
@@ -2983,7 +2999,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B172" t="s">
         <v>6</v>
@@ -2994,7 +3010,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B173" t="s">
         <v>6</v>
@@ -3005,7 +3021,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B174" t="s">
         <v>6</v>
@@ -3016,7 +3032,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="B175" t="s">
         <v>6</v>
@@ -3027,7 +3043,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B176" t="s">
         <v>6</v>
@@ -3038,7 +3054,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="B177" t="s">
         <v>6</v>
@@ -3049,9 +3065,9 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>82</v>
-      </c>
-      <c r="B178" t="s">
+        <v>136</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C178">
@@ -3060,9 +3076,9 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>110</v>
-      </c>
-      <c r="B179" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B179" t="s">
         <v>6</v>
       </c>
       <c r="C179">
@@ -3071,7 +3087,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="B180" t="s">
         <v>6</v>
@@ -3082,10 +3098,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C181">
         <v>150</v>
@@ -3093,7 +3109,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="B182" t="s">
         <v>2</v>
@@ -3104,7 +3120,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="B183" t="s">
         <v>2</v>
@@ -3115,7 +3131,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="B184" t="s">
         <v>2</v>
@@ -3126,7 +3142,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="B185" t="s">
         <v>2</v>
@@ -3137,7 +3153,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="B186" t="s">
         <v>2</v>
@@ -3148,7 +3164,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="B187" t="s">
         <v>2</v>
@@ -3159,7 +3175,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="B188" t="s">
         <v>2</v>
@@ -3170,7 +3186,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B189" t="s">
         <v>2</v>
@@ -3181,7 +3197,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="B190" t="s">
         <v>2</v>
@@ -3192,7 +3208,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="B191" t="s">
         <v>2</v>
@@ -3203,7 +3219,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="B192" t="s">
         <v>2</v>
@@ -3214,7 +3230,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="B193" t="s">
         <v>2</v>
@@ -3225,10 +3241,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="B194" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C194">
         <v>150</v>
@@ -3236,7 +3252,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B195" t="s">
         <v>5</v>
@@ -3247,7 +3263,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B196" t="s">
         <v>5</v>
@@ -3258,7 +3274,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B197" t="s">
         <v>5</v>
@@ -3269,7 +3285,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B198" t="s">
         <v>5</v>
@@ -3280,29 +3296,29 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B199" t="s">
         <v>5</v>
       </c>
       <c r="C199">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B200" t="s">
         <v>5</v>
       </c>
       <c r="C200">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B201" t="s">
         <v>5</v>
@@ -3313,7 +3329,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="B202" t="s">
         <v>5</v>
@@ -3324,7 +3340,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="B203" t="s">
         <v>5</v>
@@ -3335,7 +3351,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="B204" t="s">
         <v>5</v>
@@ -3346,7 +3362,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="B205" t="s">
         <v>5</v>
@@ -3357,7 +3373,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="B206" t="s">
         <v>5</v>
@@ -3368,7 +3384,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>128</v>
+        <v>178</v>
       </c>
       <c r="B207" t="s">
         <v>5</v>
@@ -3377,18 +3393,10 @@
         <v>150</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A208" t="s">
-        <v>174</v>
-      </c>
-      <c r="B208" t="s">
-        <v>5</v>
-      </c>
-      <c r="C208">
-        <v>150</v>
-      </c>
-    </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ACM AND RESPECTIVE TEAM LEADERS (1) (7).xlsx
+++ b/ACM AND RESPECTIVE TEAM LEADERS (1) (7).xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9C6C0A-7303-4051-A41F-20736B0C376C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DB0CE5-03E1-4C22-869D-FD1351E5C2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="8" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$C$207</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="217">
   <si>
     <t>acmname</t>
   </si>
@@ -74,638 +71,629 @@
     <t>TEAM MESHACK</t>
   </si>
   <si>
-    <t>Austine  Orieko</t>
-  </si>
-  <si>
     <t>TEAM MUTHONI</t>
   </si>
   <si>
-    <t>Caroline  Muema</t>
-  </si>
-  <si>
-    <t>Cecilia  Keru</t>
-  </si>
-  <si>
-    <t>Davis  Khasija</t>
-  </si>
-  <si>
-    <t>Doris  Nyabuto</t>
-  </si>
-  <si>
-    <t>Ephantus  Thandi</t>
-  </si>
-  <si>
-    <t>Hannah  Wangui</t>
-  </si>
-  <si>
-    <t>Immaculate  Kanani</t>
-  </si>
-  <si>
-    <t>Isaac  Ngomo</t>
-  </si>
-  <si>
-    <t>Jacob  Omondi</t>
-  </si>
-  <si>
-    <t>Jacktone  Ochieng</t>
-  </si>
-  <si>
-    <t>Jeremiah  Matini</t>
-  </si>
-  <si>
-    <t>Joan  Chepkoech</t>
-  </si>
-  <si>
-    <t>Joyce  Atieno</t>
-  </si>
-  <si>
-    <t>Kipkoech  Ngeno</t>
-  </si>
-  <si>
-    <t>Laurine  Okeya</t>
-  </si>
-  <si>
-    <t>Marion  Soita</t>
-  </si>
-  <si>
-    <t>Rachael  Wanjiru</t>
-  </si>
-  <si>
-    <t>Samuel  Muturi</t>
-  </si>
-  <si>
-    <t>Simon  Mwangi</t>
-  </si>
-  <si>
-    <t>Stephen  Njoroge</t>
-  </si>
-  <si>
-    <t>Sheila  Mathenge</t>
-  </si>
-  <si>
-    <t>Victor  Otieno</t>
-  </si>
-  <si>
-    <t>Brian  Maina</t>
-  </si>
-  <si>
-    <t>Mercy  Waititu</t>
-  </si>
-  <si>
     <t>TEAM MUGAMBI</t>
   </si>
   <si>
-    <t>Isaac  Asalikhu</t>
-  </si>
-  <si>
-    <t>Faith  Akinyi</t>
-  </si>
-  <si>
-    <t>Peninah  Wanjiku</t>
-  </si>
-  <si>
-    <t>Alvin  Mbaisi</t>
-  </si>
-  <si>
-    <t>Faith  Silole</t>
-  </si>
-  <si>
-    <t>Ruth  Sitati</t>
-  </si>
-  <si>
-    <t>Monica  Ndavi</t>
-  </si>
-  <si>
-    <t>Anna  Amedi</t>
-  </si>
-  <si>
-    <t>Irene  Njeri</t>
-  </si>
-  <si>
-    <t>Carolyne  Achieng</t>
-  </si>
-  <si>
-    <t>Robinson  Wycliffe</t>
-  </si>
-  <si>
-    <t>Elizabeth  Ondieki</t>
-  </si>
-  <si>
-    <t>Pamela  Jegugu</t>
-  </si>
-  <si>
-    <t>Sally  Kwamboka</t>
-  </si>
-  <si>
-    <t>Rose  Makhakha</t>
-  </si>
-  <si>
-    <t>Mary  Wanjiru</t>
-  </si>
-  <si>
-    <t>Beryl  Okeyo</t>
-  </si>
-  <si>
-    <t>Doreen  Santana</t>
-  </si>
-  <si>
-    <t>Esther  Gesare</t>
-  </si>
-  <si>
-    <t>Grace  Waigwe</t>
-  </si>
-  <si>
-    <t>Belinda  Auma</t>
-  </si>
-  <si>
-    <t>Timothy  Ndakalu</t>
-  </si>
-  <si>
-    <t>Rodgers  Otieno</t>
-  </si>
-  <si>
-    <t>Ann  Wayua</t>
-  </si>
-  <si>
-    <t>Simon  Onyango</t>
-  </si>
-  <si>
-    <t>Dan  Simiyu</t>
-  </si>
-  <si>
-    <t>Lucy  Muthoni</t>
-  </si>
-  <si>
-    <t>Ruth  Njambi</t>
-  </si>
-  <si>
-    <t>Maurice  Omolo</t>
-  </si>
-  <si>
-    <t>Josephat  Abigah</t>
-  </si>
-  <si>
-    <t>Kennedy  Ochieng</t>
-  </si>
-  <si>
-    <t>Josphat  Munyoki</t>
-  </si>
-  <si>
-    <t>Meshack  Muteti</t>
-  </si>
-  <si>
-    <t>Levy  Makori</t>
-  </si>
-  <si>
-    <t>Maureen  Njoroge</t>
-  </si>
-  <si>
-    <t>Daniel  Odira</t>
-  </si>
-  <si>
-    <t>Felisha  Njeri</t>
-  </si>
-  <si>
-    <t>Nicole  Achieng</t>
-  </si>
-  <si>
-    <t>Sheila  Lumumba</t>
-  </si>
-  <si>
-    <t>Speciostsa  Faith</t>
-  </si>
-  <si>
-    <t>Janet  Mutuse</t>
-  </si>
-  <si>
-    <t>David  Muriithi</t>
-  </si>
-  <si>
-    <t>Judy  Muli</t>
-  </si>
-  <si>
-    <t>Maurice  Masaga</t>
-  </si>
-  <si>
-    <t>Lydiah  Muthoni</t>
-  </si>
-  <si>
-    <t>Mercy  Akinyi</t>
-  </si>
-  <si>
-    <t>Briden  Musonga</t>
-  </si>
-  <si>
-    <t>Collins  Awuor</t>
-  </si>
-  <si>
-    <t>Judith  Lukania</t>
-  </si>
-  <si>
-    <t>Vincent  Kipkirui</t>
-  </si>
-  <si>
-    <t>Sammy  Ngugi</t>
-  </si>
-  <si>
-    <t>Newton  Wawire</t>
-  </si>
-  <si>
-    <t>Raymond  Nyakundi</t>
-  </si>
-  <si>
-    <t>Joseph  Okuro</t>
-  </si>
-  <si>
-    <t>Getray  Muchele</t>
-  </si>
-  <si>
-    <t>Alex  Murimi</t>
-  </si>
-  <si>
-    <t>George  Nandwa</t>
-  </si>
-  <si>
-    <t>Teddy  Ian</t>
-  </si>
-  <si>
-    <t>Teddy  Mbugua</t>
-  </si>
-  <si>
-    <t>Alphonce  Okoth</t>
-  </si>
-  <si>
-    <t>Monica  Amondi</t>
-  </si>
-  <si>
-    <t>Amon  Mwangi</t>
-  </si>
-  <si>
-    <t>Florence  Ayesa</t>
-  </si>
-  <si>
-    <t>Derick  Mugodo</t>
-  </si>
-  <si>
-    <t>Brian  Ambeyi</t>
-  </si>
-  <si>
-    <t>Praxides  Mukami</t>
-  </si>
-  <si>
-    <t>Godwin  Shikuku</t>
-  </si>
-  <si>
-    <t>Benard  Ouma</t>
-  </si>
-  <si>
-    <t>Emily  Mirenja</t>
-  </si>
-  <si>
-    <t>Sharlen  Ayuma</t>
-  </si>
-  <si>
-    <t>Jacklyn  Atieno</t>
-  </si>
-  <si>
-    <t>Aileen  Makena</t>
-  </si>
-  <si>
-    <t>Alice  Akinyi</t>
-  </si>
-  <si>
-    <t>Andrew  Tindi</t>
-  </si>
-  <si>
-    <t>Beatrice  Akinyi</t>
-  </si>
-  <si>
-    <t>Defence  Mwambela</t>
-  </si>
-  <si>
-    <t>Dennis  Ndunga</t>
-  </si>
-  <si>
-    <t>Devian  Sharon</t>
-  </si>
-  <si>
-    <t>Edith  Adhiambo</t>
-  </si>
-  <si>
-    <t>Edwin  Njenga</t>
-  </si>
-  <si>
-    <t>Erick  Okoth</t>
-  </si>
-  <si>
-    <t>Juliana  Orwa</t>
-  </si>
-  <si>
-    <t>Libabu  Odhiambo</t>
-  </si>
-  <si>
-    <t>Milicent  Oluoch</t>
-  </si>
-  <si>
-    <t>Richard  Okoth</t>
-  </si>
-  <si>
-    <t>Rose  Akoth</t>
-  </si>
-  <si>
-    <t>Vincent  Otieno</t>
-  </si>
-  <si>
-    <t>Macrine  Atieno</t>
-  </si>
-  <si>
-    <t>Nancy  Mactain</t>
-  </si>
-  <si>
-    <t>Sharon  Auma</t>
-  </si>
-  <si>
-    <t>Lanoline  Ogola</t>
-  </si>
-  <si>
-    <t>Adlight  Munyuri</t>
-  </si>
-  <si>
-    <t>Chrisantus  Atwoli</t>
-  </si>
-  <si>
-    <t>Levis  Oluoch</t>
-  </si>
-  <si>
-    <t>Alice  Akwii</t>
-  </si>
-  <si>
-    <t>Christine  Jamenya</t>
-  </si>
-  <si>
-    <t>Brian  Ndonga</t>
-  </si>
-  <si>
-    <t>Griffin  Isaac</t>
-  </si>
-  <si>
-    <t>Beatrice  Nzisa</t>
-  </si>
-  <si>
-    <t>Phyllis  Manza</t>
-  </si>
-  <si>
-    <t>Ruth  Mwangi</t>
-  </si>
-  <si>
-    <t>Sylvester  Ochieng</t>
-  </si>
-  <si>
-    <t>Ephantus  Mwangi</t>
-  </si>
-  <si>
-    <t>Oyoo  Felix</t>
-  </si>
-  <si>
-    <t>Evalyhn  Joy</t>
-  </si>
-  <si>
-    <t>Irene  Onyango</t>
-  </si>
-  <si>
-    <t>Neema  Achieng</t>
-  </si>
-  <si>
-    <t>Clementina  Muthoki</t>
-  </si>
-  <si>
-    <t>Christine  Ogero</t>
-  </si>
-  <si>
-    <t>Wicklife  Adero</t>
-  </si>
-  <si>
-    <t>Nevil  Adeya</t>
-  </si>
-  <si>
-    <t>Willis  Ochieng</t>
-  </si>
-  <si>
-    <t>Victor  Kipkoech</t>
-  </si>
-  <si>
-    <t>Mauline  Mmbone</t>
-  </si>
-  <si>
-    <t>Roselyn  Ndila</t>
-  </si>
-  <si>
-    <t>Samuel  Wahome</t>
-  </si>
-  <si>
-    <t>George  Onyango</t>
-  </si>
-  <si>
-    <t>Elizabeth  Wanjiku</t>
-  </si>
-  <si>
-    <t>Purity  Rotich</t>
-  </si>
-  <si>
-    <t>Olphah  Yiemi</t>
-  </si>
-  <si>
-    <t>Lucy  Wahome</t>
-  </si>
-  <si>
-    <t>Benard  Makori</t>
-  </si>
-  <si>
-    <t>Jackline  Kajuju</t>
-  </si>
-  <si>
-    <t>Simphrose  Mulaah</t>
-  </si>
-  <si>
-    <t>Laura  Iravusa</t>
-  </si>
-  <si>
-    <t>Brian  Kitui</t>
-  </si>
-  <si>
-    <t>Danielson  Owino</t>
-  </si>
-  <si>
-    <t>Keziah  Wambui</t>
-  </si>
-  <si>
-    <t>Philip  Wambugu</t>
-  </si>
-  <si>
-    <t>Teresia  Wanjiku</t>
-  </si>
-  <si>
-    <t>Mercy  Waweru</t>
-  </si>
-  <si>
-    <t>Colleta  Rasugu</t>
-  </si>
-  <si>
-    <t>Blandine  Nekesa</t>
-  </si>
-  <si>
-    <t>Reginah  Wambui</t>
-  </si>
-  <si>
-    <t>Shadrack  Wafula</t>
-  </si>
-  <si>
-    <t>Daniel  Samuel</t>
-  </si>
-  <si>
-    <t>Joshua  Ogweno</t>
-  </si>
-  <si>
-    <t>Ronaldo  Kabiru</t>
-  </si>
-  <si>
-    <t>Lydiah  Achieng</t>
-  </si>
-  <si>
-    <t>Loyd  Munene</t>
-  </si>
-  <si>
-    <t>Purity  Simbole</t>
-  </si>
-  <si>
-    <t>Keith  Idambila</t>
-  </si>
-  <si>
-    <t>John  Kariuki</t>
-  </si>
-  <si>
-    <t>Stephen  Kyenze</t>
-  </si>
-  <si>
-    <t>James  Njoroge</t>
-  </si>
-  <si>
-    <t>Nancy  Oranga</t>
-  </si>
-  <si>
-    <t>Ronald  Ouma</t>
-  </si>
-  <si>
-    <t>Joshua  Mishael</t>
-  </si>
-  <si>
-    <t>Caroline  Mukami</t>
-  </si>
-  <si>
-    <t>TARGET</t>
-  </si>
-  <si>
-    <t>Pricilla  Nasike</t>
-  </si>
-  <si>
-    <t>Joyce  Njoroge</t>
-  </si>
-  <si>
-    <t>Stephanie  Apiyo</t>
-  </si>
-  <si>
-    <t>Christopher  Munywoki</t>
-  </si>
-  <si>
-    <t>Kelvin  Soko</t>
-  </si>
-  <si>
-    <t>Christine  Wawira</t>
-  </si>
-  <si>
-    <t>Rahab  Wangechi</t>
-  </si>
-  <si>
-    <t>Kelvin  Nyika</t>
-  </si>
-  <si>
-    <t>Philomena  Woki</t>
-  </si>
-  <si>
-    <t>Martha  Bosibori</t>
-  </si>
-  <si>
-    <t>Simon  Wanyoike</t>
-  </si>
-  <si>
-    <t>Benard  Njoroge</t>
-  </si>
-  <si>
-    <t>Japheth  Kibet</t>
-  </si>
-  <si>
-    <t>Victor  Odhiambo</t>
-  </si>
-  <si>
-    <t>Beth  Gacugi</t>
-  </si>
-  <si>
-    <t>Trizer  Anyango</t>
-  </si>
-  <si>
-    <t>Conrad  Mulama</t>
-  </si>
-  <si>
-    <t>Sharly  Otieno</t>
-  </si>
-  <si>
-    <t>Monicah  Lauzi</t>
-  </si>
-  <si>
-    <t>Billy  Brian</t>
-  </si>
-  <si>
-    <t>Cornelius  Kisanya</t>
-  </si>
-  <si>
-    <t>Benadette  Wanjiru</t>
-  </si>
-  <si>
-    <t>Priscia  Achola</t>
-  </si>
-  <si>
-    <t>Jeanne  Altmann</t>
-  </si>
-  <si>
-    <t>Sarah  Njoki</t>
-  </si>
-  <si>
-    <t>Roselyne  Mbuto</t>
-  </si>
-  <si>
-    <t>Cecilia  Amolo</t>
-  </si>
-  <si>
-    <t>Emily  Gisemba</t>
-  </si>
-  <si>
-    <t>Marion  Wafula</t>
-  </si>
-  <si>
-    <t>Hanche  Kanchora</t>
-  </si>
-  <si>
-    <t>Dorcas  Kemunto</t>
-  </si>
-  <si>
-    <t>Faith  Grace</t>
+    <t>CALL TARGET</t>
+  </si>
+  <si>
+    <t>Ruth Sitati</t>
+  </si>
+  <si>
+    <t>Monica Ndavi</t>
+  </si>
+  <si>
+    <t>Anna Amedi</t>
+  </si>
+  <si>
+    <t>Irene Njeri</t>
+  </si>
+  <si>
+    <t>Carolyne Achieng</t>
+  </si>
+  <si>
+    <t>Robinson Wycliffe</t>
+  </si>
+  <si>
+    <t>Elizabeth Ondieki</t>
+  </si>
+  <si>
+    <t>Pamela Jegugu</t>
+  </si>
+  <si>
+    <t>Sally Kwamboka</t>
+  </si>
+  <si>
+    <t>Rose Makhakha</t>
+  </si>
+  <si>
+    <t>Mary Wanjiru</t>
+  </si>
+  <si>
+    <t>Beryl Okeyo</t>
+  </si>
+  <si>
+    <t>Doreen Santana</t>
+  </si>
+  <si>
+    <t>Grace Waigwe</t>
+  </si>
+  <si>
+    <t>Belinda Auma</t>
+  </si>
+  <si>
+    <t>Timothy Ndakalu</t>
+  </si>
+  <si>
+    <t>Rodgers Otieno</t>
+  </si>
+  <si>
+    <t>Ann Wayua</t>
+  </si>
+  <si>
+    <t>Simon Onyango</t>
+  </si>
+  <si>
+    <t>Dan Simiyu</t>
+  </si>
+  <si>
+    <t>Lucy Muthoni</t>
+  </si>
+  <si>
+    <t>Ruth Njambi</t>
+  </si>
+  <si>
+    <t>Maurice Omolo</t>
+  </si>
+  <si>
+    <t>Josephat Abigah</t>
+  </si>
+  <si>
+    <t>Kennedy Ochieng</t>
+  </si>
+  <si>
+    <t>Josphat Munyoki</t>
+  </si>
+  <si>
+    <t>Meshack Muteti</t>
+  </si>
+  <si>
+    <t>Levy Makori</t>
+  </si>
+  <si>
+    <t>Maureen Njoroge</t>
+  </si>
+  <si>
+    <t>Daniel Odira</t>
+  </si>
+  <si>
+    <t>Felisha Njeri</t>
+  </si>
+  <si>
+    <t>Nicole Achieng</t>
+  </si>
+  <si>
+    <t>Sheila Lumumba</t>
+  </si>
+  <si>
+    <t>Speciostsa Faith</t>
+  </si>
+  <si>
+    <t>Janet Mutuse</t>
+  </si>
+  <si>
+    <t>David Muriithi</t>
+  </si>
+  <si>
+    <t>Judy Muli</t>
+  </si>
+  <si>
+    <t>Maurice Masaga</t>
+  </si>
+  <si>
+    <t>Lydiah Muthoni</t>
+  </si>
+  <si>
+    <t>Mercy Akinyi</t>
+  </si>
+  <si>
+    <t>Sharlen Ayuma</t>
+  </si>
+  <si>
+    <t>Jacklyn Atieno</t>
+  </si>
+  <si>
+    <t>Defence Mwambela</t>
+  </si>
+  <si>
+    <t>Dennis Ndunga</t>
+  </si>
+  <si>
+    <t>Aileen Makena</t>
+  </si>
+  <si>
+    <t>Alice Akinyi</t>
+  </si>
+  <si>
+    <t>Andrew Tindi</t>
+  </si>
+  <si>
+    <t>Devian Sharon</t>
+  </si>
+  <si>
+    <t>Edith Adhiambo</t>
+  </si>
+  <si>
+    <t>Juliana Orwa</t>
+  </si>
+  <si>
+    <t>Libabu Odhiambo</t>
+  </si>
+  <si>
+    <t>Milicent Oluoch</t>
+  </si>
+  <si>
+    <t>Macrine Atieno</t>
+  </si>
+  <si>
+    <t>Levis Oluoch</t>
+  </si>
+  <si>
+    <t>Sharon Auma</t>
+  </si>
+  <si>
+    <t>Lanoline Ogola</t>
+  </si>
+  <si>
+    <t>Adlight Munyuri</t>
+  </si>
+  <si>
+    <t>Chrisantus Atwoli</t>
+  </si>
+  <si>
+    <t>Alice Akwii</t>
+  </si>
+  <si>
+    <t>Brian Ndonga</t>
+  </si>
+  <si>
+    <t>Griffin Isaac</t>
+  </si>
+  <si>
+    <t>Teddy Mbugua</t>
+  </si>
+  <si>
+    <t>Beatrice Nzisa</t>
+  </si>
+  <si>
+    <t>Ruth Mwangi</t>
+  </si>
+  <si>
+    <t>Evalyhn Joy</t>
+  </si>
+  <si>
+    <t>Irene Onyango</t>
+  </si>
+  <si>
+    <t>Christine Ogero</t>
+  </si>
+  <si>
+    <t>Mauline Mmbone</t>
+  </si>
+  <si>
+    <t>Roselyn Ndila</t>
+  </si>
+  <si>
+    <t>Purity Rotich</t>
+  </si>
+  <si>
+    <t>Benard Makori</t>
+  </si>
+  <si>
+    <t>Brian Kitui</t>
+  </si>
+  <si>
+    <t>KELVIN SOKO</t>
+  </si>
+  <si>
+    <t>CHRISTINE WAWIRA</t>
+  </si>
+  <si>
+    <t>RAHAB WANGECHI</t>
+  </si>
+  <si>
+    <t>KELVIN NYIKA</t>
+  </si>
+  <si>
+    <t>PHILOMENA WOKI</t>
+  </si>
+  <si>
+    <t>MARTHA BOSIBORI</t>
+  </si>
+  <si>
+    <t>SIMON WANYOIKE</t>
+  </si>
+  <si>
+    <t>BENARD NJOROGE</t>
+  </si>
+  <si>
+    <t>JAPHETH KIBET</t>
+  </si>
+  <si>
+    <t>VICTOR ODHIAMBO</t>
+  </si>
+  <si>
+    <t>BETH GACUGI</t>
+  </si>
+  <si>
+    <t>CONRAD MULAMA</t>
+  </si>
+  <si>
+    <t>SHARLY OTIENO</t>
+  </si>
+  <si>
+    <t>MONICAH LAUZI</t>
+  </si>
+  <si>
+    <t>BILLY BRIAN</t>
+  </si>
+  <si>
+    <t>CORNELIUS KISANYA</t>
+  </si>
+  <si>
+    <t>BENADETTE WANJIRU</t>
+  </si>
+  <si>
+    <t>PRISCIA ACHOLA</t>
+  </si>
+  <si>
+    <t>JEANNE ALTMANN</t>
+  </si>
+  <si>
+    <t>SARAH NJOKI</t>
+  </si>
+  <si>
+    <t>ROSELYNE MBUTO</t>
+  </si>
+  <si>
+    <t>CECILIA AMOLO</t>
+  </si>
+  <si>
+    <t>EMILY GISEMBA</t>
+  </si>
+  <si>
+    <t>DORCAS KEMUNTO</t>
+  </si>
+  <si>
+    <t>MARION WAFULA</t>
+  </si>
+  <si>
+    <t>TRIZER ANYANGO</t>
+  </si>
+  <si>
+    <t>EMILLY OLUOCH</t>
+  </si>
+  <si>
+    <t>EVALYHN JOY</t>
+  </si>
+  <si>
+    <t>Alvin Mbaisi</t>
+  </si>
+  <si>
+    <t>Austine Orieko</t>
+  </si>
+  <si>
+    <t>Brian Maina</t>
+  </si>
+  <si>
+    <t>Caroline Muema</t>
+  </si>
+  <si>
+    <t>Cecilia Keru</t>
+  </si>
+  <si>
+    <t>Danielson Owino</t>
+  </si>
+  <si>
+    <t>Davis Khasija</t>
+  </si>
+  <si>
+    <t>Doris Nyabuto</t>
+  </si>
+  <si>
+    <t>Ephantus Thandi</t>
+  </si>
+  <si>
+    <t>Ephantus Mwangi</t>
+  </si>
+  <si>
+    <t>Faith Silole</t>
+  </si>
+  <si>
+    <t>Hannah Wangui</t>
+  </si>
+  <si>
+    <t>Immaculate Kanani</t>
+  </si>
+  <si>
+    <t>Isaac Ngomo</t>
+  </si>
+  <si>
+    <t>Jacktone Ochieng</t>
+  </si>
+  <si>
+    <t>Jacob Omondi</t>
+  </si>
+  <si>
+    <t>Jeremiah Matini</t>
+  </si>
+  <si>
+    <t>Joan Chepkoech</t>
+  </si>
+  <si>
+    <t>Joyce Atieno</t>
+  </si>
+  <si>
+    <t>Keziah Wambui</t>
+  </si>
+  <si>
+    <t>Kipkoech Ngeno</t>
+  </si>
+  <si>
+    <t>Laurine Okeya</t>
+  </si>
+  <si>
+    <t>Lucy Wahome</t>
+  </si>
+  <si>
+    <t>Marion Soita</t>
+  </si>
+  <si>
+    <t>Mercy Waititu</t>
+  </si>
+  <si>
+    <t>Neema Achieng</t>
+  </si>
+  <si>
+    <t>Rachael Wanjiru</t>
+  </si>
+  <si>
+    <t>Samuel Muturi</t>
+  </si>
+  <si>
+    <t>Sheila Mathenge</t>
+  </si>
+  <si>
+    <t>Simon Mwangi</t>
+  </si>
+  <si>
+    <t>Simphrose Mulaah</t>
+  </si>
+  <si>
+    <t>Stephen Njoroge</t>
+  </si>
+  <si>
+    <t>Sylvester Ochieng</t>
+  </si>
+  <si>
+    <t>Victor Otieno</t>
+  </si>
+  <si>
+    <t>Victor Kipkoech</t>
+  </si>
+  <si>
+    <t>Erick Okoth</t>
+  </si>
+  <si>
+    <t>Richard Okoth</t>
+  </si>
+  <si>
+    <t>Rose Akoth</t>
+  </si>
+  <si>
+    <t>Vincent Otieno</t>
+  </si>
+  <si>
+    <t>Nancy Mactain</t>
+  </si>
+  <si>
+    <t>Edwin Njenga</t>
+  </si>
+  <si>
+    <t>Beatrice Akinyi</t>
+  </si>
+  <si>
+    <t>Christine Jamenya</t>
+  </si>
+  <si>
+    <t>Oyoo Felix</t>
+  </si>
+  <si>
+    <t>Nevil Adeya</t>
+  </si>
+  <si>
+    <t>Willis Ochieng</t>
+  </si>
+  <si>
+    <t>Jackline Kajuju</t>
+  </si>
+  <si>
+    <t>Joseph Okuro</t>
+  </si>
+  <si>
+    <t>Newton Wawire</t>
+  </si>
+  <si>
+    <t>Amon Mwangi</t>
+  </si>
+  <si>
+    <t>Esther Gesare</t>
+  </si>
+  <si>
+    <t>Brian Ambeyi</t>
+  </si>
+  <si>
+    <t>Samuel Wahome</t>
+  </si>
+  <si>
+    <t>George Onyango</t>
+  </si>
+  <si>
+    <t>Phyllis Manza</t>
+  </si>
+  <si>
+    <t>Laura Iravusa</t>
+  </si>
+  <si>
+    <t>Godwin Shikuku</t>
+  </si>
+  <si>
+    <t>Isaac Asalikhu</t>
+  </si>
+  <si>
+    <t>Collins Awuor</t>
+  </si>
+  <si>
+    <t>Emily Mirenja</t>
+  </si>
+  <si>
+    <t>Hellen Njeru</t>
+  </si>
+  <si>
+    <t>Vincent Kipkirui</t>
+  </si>
+  <si>
+    <t>Faith Akinyi</t>
+  </si>
+  <si>
+    <t>Derick Mugodo</t>
+  </si>
+  <si>
+    <t>Alex Murimi</t>
+  </si>
+  <si>
+    <t>Alphonce Okoth</t>
+  </si>
+  <si>
+    <t>George Nandwa</t>
+  </si>
+  <si>
+    <t>Florence Ayesa</t>
+  </si>
+  <si>
+    <t>Getray Muchele</t>
+  </si>
+  <si>
+    <t>Briden Musonga</t>
+  </si>
+  <si>
+    <t>Judith Lukania</t>
+  </si>
+  <si>
+    <t>Monica Amondi</t>
+  </si>
+  <si>
+    <t>Elizabeth Wanjiku</t>
+  </si>
+  <si>
+    <t>Clementina Muthoki</t>
+  </si>
+  <si>
+    <t>Michael Osinga</t>
+  </si>
+  <si>
+    <t>Praxides Mukami</t>
+  </si>
+  <si>
+    <t>Raymond Nyakundi</t>
+  </si>
+  <si>
+    <t>Teddy Ian</t>
+  </si>
+  <si>
+    <t>Philip Wambugu</t>
+  </si>
+  <si>
+    <t>Teresia Wanjiku</t>
+  </si>
+  <si>
+    <t>Mercy Waweru</t>
+  </si>
+  <si>
+    <t>Colleta Rasugu</t>
+  </si>
+  <si>
+    <t>Blandine Nekesa</t>
+  </si>
+  <si>
+    <t>Reginah Wambui</t>
+  </si>
+  <si>
+    <t>Shadrack Wafula</t>
+  </si>
+  <si>
+    <t>Daniel Samuel</t>
+  </si>
+  <si>
+    <t>Joshua Ogweno</t>
+  </si>
+  <si>
+    <t>Ronaldo Kabiru</t>
+  </si>
+  <si>
+    <t>Cynthia Achieng</t>
+  </si>
+  <si>
+    <t>Lydiah Achieng</t>
+  </si>
+  <si>
+    <t>Lilian Wairimu</t>
+  </si>
+  <si>
+    <t>Rossette Namayi</t>
+  </si>
+  <si>
+    <t>Loyd Munene</t>
+  </si>
+  <si>
+    <t>Purity Simbole</t>
+  </si>
+  <si>
+    <t>Keith Idambila</t>
+  </si>
+  <si>
+    <t>Pricilla nasike</t>
+  </si>
+  <si>
+    <t>John Kariuki</t>
+  </si>
+  <si>
+    <t>Stephen Kyenze</t>
+  </si>
+  <si>
+    <t>James Njoroge</t>
+  </si>
+  <si>
+    <t>Nancy Oranga</t>
+  </si>
+  <si>
+    <t>Ronald Ouma</t>
+  </si>
+  <si>
+    <t>Joshua Mishael</t>
+  </si>
+  <si>
+    <t>Caroline Mukami</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -727,27 +715,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -764,36 +738,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{64F361DC-43B7-4CC1-B2FE-C0957E5AFFF7}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{5BECB51E-0CC2-4DEE-AC78-4BDE9C9415A0}"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1102,37 +1055,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F3DAFF-CEE0-41A3-B271-5EFD93789172}">
-  <dimension ref="A1:C207"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80073D58-64F8-4FD4-8648-F8E166B7E4C7}">
+  <dimension ref="A1:C204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>187</v>
+      <c r="C1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>150</v>
@@ -1140,10 +1093,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>150</v>
@@ -1151,7 +1104,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1162,7 +1115,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1173,10 +1126,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>150</v>
@@ -1184,54 +1137,54 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>150</v>
@@ -1239,10 +1192,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>150</v>
@@ -1250,10 +1203,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>150</v>
@@ -1261,7 +1214,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -1272,10 +1225,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C15">
         <v>150</v>
@@ -1283,10 +1236,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <v>150</v>
@@ -1294,10 +1247,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C17">
         <v>150</v>
@@ -1305,10 +1258,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>151</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <v>150</v>
@@ -1316,10 +1269,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>152</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C19">
         <v>150</v>
@@ -1327,10 +1280,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C20">
         <v>150</v>
@@ -1338,10 +1291,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21">
         <v>150</v>
@@ -1349,10 +1302,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C22">
         <v>150</v>
@@ -1360,10 +1313,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C23">
         <v>150</v>
@@ -1371,10 +1324,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C24">
         <v>150</v>
@@ -1382,10 +1335,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25">
         <v>150</v>
@@ -1393,10 +1346,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C26">
         <v>150</v>
@@ -1404,10 +1357,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27">
         <v>150</v>
@@ -1415,10 +1368,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C28">
         <v>150</v>
@@ -1426,10 +1379,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>148</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C29">
         <v>150</v>
@@ -1437,10 +1390,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C30">
         <v>150</v>
@@ -1448,10 +1401,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C31">
         <v>150</v>
@@ -1459,10 +1412,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>183</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C32">
         <v>150</v>
@@ -1470,73 +1423,73 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
       </c>
       <c r="C33">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C36">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C37">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C38">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
@@ -1547,21 +1500,21 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C40">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C41">
         <v>150</v>
@@ -1569,7 +1522,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
@@ -1580,10 +1533,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C43">
         <v>150</v>
@@ -1591,10 +1544,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>157</v>
+        <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C44">
         <v>150</v>
@@ -1602,10 +1555,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>163</v>
+        <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C45">
         <v>150</v>
@@ -1613,10 +1566,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C46">
         <v>150</v>
@@ -1624,76 +1577,76 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C47">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C48">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C49">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C50">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C51">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C52">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B53" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="C53">
         <v>150</v>
@@ -1701,10 +1654,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="C54">
         <v>150</v>
@@ -1712,10 +1665,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="B55" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="C55">
         <v>150</v>
@@ -1723,10 +1676,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B56" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C56">
         <v>150</v>
@@ -1734,10 +1687,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C57">
         <v>150</v>
@@ -1745,10 +1698,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B58" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C58">
         <v>150</v>
@@ -1756,10 +1709,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="B59" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C59">
         <v>150</v>
@@ -1767,10 +1720,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="B60" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C60">
         <v>150</v>
@@ -1778,10 +1731,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B61" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C61">
         <v>150</v>
@@ -1789,10 +1742,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="B62" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="C62">
         <v>150</v>
@@ -1800,10 +1753,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B63" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="C63">
         <v>150</v>
@@ -1811,10 +1764,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B64" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="C64">
         <v>150</v>
@@ -1822,10 +1775,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B65" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="C65">
         <v>150</v>
@@ -1833,10 +1786,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="B66" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="C66">
         <v>150</v>
@@ -1844,10 +1797,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="B67" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="C67">
         <v>150</v>
@@ -1855,10 +1808,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="B68" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C68">
         <v>150</v>
@@ -1866,10 +1819,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="B69" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="C69">
         <v>150</v>
@@ -1877,10 +1830,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="B70" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="C70">
         <v>150</v>
@@ -1888,10 +1841,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="B71" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C71">
         <v>150</v>
@@ -1899,10 +1852,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="B72" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="C72">
         <v>150</v>
@@ -1910,10 +1863,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="B73" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C73">
         <v>150</v>
@@ -1921,10 +1874,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="B74" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C74">
         <v>150</v>
@@ -1932,10 +1885,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="B75" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C75">
         <v>150</v>
@@ -1943,10 +1896,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="B76" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C76">
         <v>150</v>
@@ -1954,10 +1907,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>172</v>
+        <v>89</v>
       </c>
       <c r="B77" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C77">
         <v>150</v>
@@ -1965,10 +1918,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="B78" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C78">
         <v>150</v>
@@ -1976,10 +1929,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>155</v>
+        <v>91</v>
       </c>
       <c r="B79" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C79">
         <v>150</v>
@@ -1987,10 +1940,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>170</v>
+        <v>92</v>
       </c>
       <c r="B80" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C80">
         <v>150</v>
@@ -1998,10 +1951,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>171</v>
+        <v>93</v>
       </c>
       <c r="B81" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C81">
         <v>150</v>
@@ -2009,10 +1962,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>188</v>
+        <v>94</v>
       </c>
       <c r="B82" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C82">
         <v>150</v>
@@ -2020,10 +1973,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>186</v>
+        <v>95</v>
       </c>
       <c r="B83" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C83">
         <v>150</v>
@@ -2031,10 +1984,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>189</v>
+        <v>96</v>
       </c>
       <c r="B84" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C84">
         <v>150</v>
@@ -2042,10 +1995,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>190</v>
+        <v>97</v>
       </c>
       <c r="B85" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C85">
         <v>150</v>
@@ -2053,10 +2006,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>191</v>
+        <v>98</v>
       </c>
       <c r="B86" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C86">
         <v>150</v>
@@ -2064,10 +2017,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>179</v>
+        <v>99</v>
       </c>
       <c r="B87" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C87">
         <v>150</v>
@@ -2075,10 +2028,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>192</v>
+        <v>100</v>
       </c>
       <c r="B88" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C88">
         <v>150</v>
@@ -2086,10 +2039,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>193</v>
+        <v>101</v>
       </c>
       <c r="B89" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C89">
         <v>150</v>
@@ -2097,10 +2050,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>194</v>
+        <v>102</v>
       </c>
       <c r="B90" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C90">
         <v>150</v>
@@ -2108,10 +2061,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B91" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C91">
         <v>150</v>
@@ -2119,10 +2072,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>195</v>
+        <v>104</v>
       </c>
       <c r="B92" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C92">
         <v>150</v>
@@ -2130,10 +2083,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>196</v>
+        <v>105</v>
       </c>
       <c r="B93" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C93">
         <v>150</v>
@@ -2141,10 +2094,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>197</v>
+        <v>106</v>
       </c>
       <c r="B94" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C94">
         <v>150</v>
@@ -2152,10 +2105,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>198</v>
+        <v>107</v>
       </c>
       <c r="B95" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C95">
         <v>150</v>
@@ -2163,10 +2116,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>199</v>
+        <v>108</v>
       </c>
       <c r="B96" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C96">
         <v>150</v>
@@ -2174,10 +2127,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>200</v>
+        <v>109</v>
       </c>
       <c r="B97" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C97">
         <v>150</v>
@@ -2185,10 +2138,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="B98" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C98">
         <v>150</v>
@@ -2196,10 +2149,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="B99" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C99">
         <v>150</v>
@@ -2207,10 +2160,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>202</v>
+        <v>112</v>
       </c>
       <c r="B100" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C100">
         <v>150</v>
@@ -2218,10 +2171,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>203</v>
+        <v>113</v>
       </c>
       <c r="B101" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C101">
         <v>150</v>
@@ -2229,10 +2182,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>204</v>
+        <v>114</v>
       </c>
       <c r="B102" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C102">
         <v>150</v>
@@ -2240,10 +2193,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>205</v>
+        <v>115</v>
       </c>
       <c r="B103" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C103">
         <v>150</v>
@@ -2251,10 +2204,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>206</v>
+        <v>116</v>
       </c>
       <c r="B104" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C104">
         <v>150</v>
@@ -2262,10 +2215,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>207</v>
+        <v>117</v>
       </c>
       <c r="B105" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C105">
         <v>150</v>
@@ -2273,10 +2226,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>208</v>
+        <v>118</v>
       </c>
       <c r="B106" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C106">
         <v>150</v>
@@ -2284,10 +2237,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>209</v>
+        <v>119</v>
       </c>
       <c r="B107" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C107">
         <v>150</v>
@@ -2295,10 +2248,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="B108" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C108">
         <v>150</v>
@@ -2306,10 +2259,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>211</v>
+        <v>121</v>
       </c>
       <c r="B109" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C109">
         <v>150</v>
@@ -2317,10 +2270,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>212</v>
+        <v>122</v>
       </c>
       <c r="B110" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C110">
         <v>150</v>
@@ -2328,10 +2281,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>213</v>
+        <v>123</v>
       </c>
       <c r="B111" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C111">
         <v>150</v>
@@ -2339,10 +2292,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>214</v>
+        <v>124</v>
       </c>
       <c r="B112" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C112">
         <v>150</v>
@@ -2350,10 +2303,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>215</v>
+        <v>125</v>
       </c>
       <c r="B113" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C113">
         <v>150</v>
@@ -2361,10 +2314,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>216</v>
+        <v>126</v>
       </c>
       <c r="B114" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C114">
         <v>150</v>
@@ -2372,10 +2325,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>217</v>
+        <v>127</v>
       </c>
       <c r="B115" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C115">
         <v>150</v>
@@ -2383,10 +2336,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>218</v>
+        <v>128</v>
       </c>
       <c r="B116" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C116">
         <v>150</v>
@@ -2394,10 +2347,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>177</v>
+        <v>129</v>
       </c>
       <c r="B117" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C117">
         <v>150</v>
@@ -2405,10 +2358,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>181</v>
+        <v>130</v>
       </c>
       <c r="B118" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C118">
         <v>150</v>
@@ -2416,10 +2369,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="B119" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C119">
         <v>150</v>
@@ -2427,10 +2380,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>219</v>
+        <v>132</v>
       </c>
       <c r="B120" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C120">
         <v>150</v>
@@ -2438,10 +2391,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="B121" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C121">
         <v>150</v>
@@ -2449,10 +2402,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="B122" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C122">
         <v>150</v>
@@ -2460,10 +2413,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="B123" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C123">
         <v>150</v>
@@ -2471,10 +2424,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="B124" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C124">
         <v>150</v>
@@ -2482,10 +2435,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="B125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C125">
         <v>150</v>
@@ -2493,10 +2446,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="B126" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C126">
         <v>150</v>
@@ -2504,10 +2457,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="B127" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C127">
         <v>150</v>
@@ -2515,10 +2468,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="B128" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C128">
         <v>150</v>
@@ -2526,10 +2479,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="B129" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C129">
         <v>150</v>
@@ -2537,10 +2490,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>17</v>
+        <v>142</v>
       </c>
       <c r="B130" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C130">
         <v>150</v>
@@ -2548,10 +2501,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B131" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C131">
         <v>150</v>
@@ -2559,10 +2512,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="B132" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C132">
         <v>150</v>
@@ -2570,10 +2523,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="B133" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C133">
         <v>150</v>
@@ -2581,10 +2534,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="B134" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C134">
         <v>150</v>
@@ -2592,10 +2545,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="B135" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C135">
         <v>150</v>
@@ -2603,10 +2556,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="B136" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C136">
         <v>150</v>
@@ -2614,10 +2567,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="B137" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C137">
         <v>150</v>
@@ -2625,10 +2578,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="B138" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C138">
         <v>150</v>
@@ -2636,10 +2589,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>24</v>
+        <v>151</v>
       </c>
       <c r="B139" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C139">
         <v>150</v>
@@ -2647,10 +2600,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="B140" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C140">
         <v>150</v>
@@ -2658,10 +2611,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="B141" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C141">
         <v>150</v>
@@ -2669,10 +2622,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>26</v>
+        <v>154</v>
       </c>
       <c r="B142" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C142">
         <v>150</v>
@@ -2680,10 +2633,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="B143" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C143">
         <v>150</v>
@@ -2691,10 +2644,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B144" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C144">
         <v>150</v>
@@ -2702,10 +2655,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="B145" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C145">
         <v>150</v>
@@ -2713,10 +2666,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>36</v>
+        <v>158</v>
       </c>
       <c r="B146" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C146">
         <v>150</v>
@@ -2724,10 +2677,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="B147" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C147">
         <v>150</v>
@@ -2735,10 +2688,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="B148" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C148">
         <v>150</v>
@@ -2746,7 +2699,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>30</v>
+        <v>161</v>
       </c>
       <c r="B149" t="s">
         <v>12</v>
@@ -2757,7 +2710,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="B150" t="s">
         <v>12</v>
@@ -2768,7 +2721,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="B151" t="s">
         <v>12</v>
@@ -2779,7 +2732,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B152" t="s">
         <v>12</v>
@@ -2790,7 +2743,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c r="B153" t="s">
         <v>12</v>
@@ -2801,10 +2754,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="B154" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C154">
         <v>150</v>
@@ -2812,10 +2765,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>34</v>
+        <v>167</v>
       </c>
       <c r="B155" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C155">
         <v>150</v>
@@ -2823,10 +2776,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="B156" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C156">
         <v>150</v>
@@ -2834,10 +2787,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="B157" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C157">
         <v>150</v>
@@ -2845,7 +2798,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="B158" t="s">
         <v>12</v>
@@ -2856,7 +2809,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="B159" t="s">
         <v>12</v>
@@ -2867,7 +2820,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="B160" t="s">
         <v>12</v>
@@ -2878,7 +2831,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="B161" t="s">
         <v>12</v>
@@ -2889,7 +2842,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B162" t="s">
         <v>12</v>
@@ -2900,7 +2853,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B163" t="s">
         <v>12</v>
@@ -2911,7 +2864,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B164" t="s">
         <v>12</v>
@@ -2922,7 +2875,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B165" t="s">
         <v>12</v>
@@ -2933,7 +2886,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B166" t="s">
         <v>12</v>
@@ -2944,7 +2897,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B167" t="s">
         <v>12</v>
@@ -2955,7 +2908,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B168" t="s">
         <v>12</v>
@@ -2966,10 +2919,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>47</v>
+        <v>181</v>
       </c>
       <c r="B169" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C169">
         <v>150</v>
@@ -2977,10 +2930,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>48</v>
+        <v>182</v>
       </c>
       <c r="B170" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C170">
         <v>150</v>
@@ -2988,10 +2941,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>52</v>
+        <v>183</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C171">
         <v>150</v>
@@ -2999,10 +2952,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>53</v>
+        <v>184</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C172">
         <v>150</v>
@@ -3010,10 +2963,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>59</v>
+        <v>185</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C173">
         <v>150</v>
@@ -3021,10 +2974,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>60</v>
+        <v>186</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C174">
         <v>150</v>
@@ -3032,10 +2985,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C175">
         <v>150</v>
@@ -3043,10 +2996,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="B176" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C176">
         <v>150</v>
@@ -3054,10 +3007,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C177">
         <v>150</v>
@@ -3065,10 +3018,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>136</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>6</v>
+        <v>190</v>
+      </c>
+      <c r="B178" t="s">
+        <v>12</v>
       </c>
       <c r="C178">
         <v>150</v>
@@ -3076,10 +3029,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C179">
         <v>150</v>
@@ -3087,7 +3040,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="B180" t="s">
         <v>6</v>
@@ -3098,10 +3051,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>113</v>
+        <v>193</v>
       </c>
       <c r="B181" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C181">
         <v>150</v>
@@ -3109,10 +3062,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>114</v>
+        <v>194</v>
       </c>
       <c r="B182" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C182">
         <v>150</v>
@@ -3120,10 +3073,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>109</v>
+        <v>195</v>
       </c>
       <c r="B183" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C183">
         <v>150</v>
@@ -3131,10 +3084,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>110</v>
+        <v>196</v>
       </c>
       <c r="B184" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C184">
         <v>150</v>
@@ -3142,10 +3095,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>111</v>
+        <v>197</v>
       </c>
       <c r="B185" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C185">
         <v>150</v>
@@ -3153,10 +3106,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>115</v>
+        <v>198</v>
       </c>
       <c r="B186" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C186">
         <v>150</v>
@@ -3164,10 +3117,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>116</v>
+        <v>199</v>
       </c>
       <c r="B187" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C187">
         <v>150</v>
@@ -3175,10 +3128,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>119</v>
+        <v>200</v>
       </c>
       <c r="B188" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C188">
         <v>150</v>
@@ -3186,10 +3139,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>120</v>
+        <v>201</v>
       </c>
       <c r="B189" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C189">
         <v>150</v>
@@ -3197,10 +3150,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>121</v>
+        <v>202</v>
       </c>
       <c r="B190" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C190">
         <v>150</v>
@@ -3208,10 +3161,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>125</v>
+        <v>203</v>
       </c>
       <c r="B191" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C191">
         <v>150</v>
@@ -3219,10 +3172,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="B192" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C192">
         <v>150</v>
@@ -3230,10 +3183,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>143</v>
+        <v>205</v>
       </c>
       <c r="B193" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C193">
         <v>150</v>
@@ -3241,10 +3194,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="B194" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C194">
         <v>150</v>
@@ -3252,7 +3205,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>49</v>
+        <v>207</v>
       </c>
       <c r="B195" t="s">
         <v>5</v>
@@ -3263,10 +3216,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>51</v>
+        <v>208</v>
       </c>
       <c r="B196" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C196">
         <v>150</v>
@@ -3274,10 +3227,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>54</v>
+        <v>209</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C197">
         <v>150</v>
@@ -3285,10 +3238,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>61</v>
+        <v>210</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C198">
         <v>150</v>
@@ -3296,21 +3249,21 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>68</v>
+        <v>211</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C199">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C200">
         <v>150</v>
@@ -3318,10 +3271,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C201">
         <v>150</v>
@@ -3329,10 +3282,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>128</v>
+        <v>214</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C202">
         <v>150</v>
@@ -3340,10 +3293,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>129</v>
+        <v>215</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C203">
         <v>150</v>
@@ -3351,52 +3304,16 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>130</v>
+        <v>216</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C204">
         <v>150</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A205" t="s">
-        <v>147</v>
-      </c>
-      <c r="B205" t="s">
-        <v>5</v>
-      </c>
-      <c r="C205">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A206" t="s">
-        <v>156</v>
-      </c>
-      <c r="B206" t="s">
-        <v>5</v>
-      </c>
-      <c r="C206">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A207" t="s">
-        <v>178</v>
-      </c>
-      <c r="B207" t="s">
-        <v>5</v>
-      </c>
-      <c r="C207">
-        <v>150</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ACM AND RESPECTIVE TEAM LEADERS (1) (7).xlsx
+++ b/ACM AND RESPECTIVE TEAM LEADERS (1) (7).xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DB0CE5-03E1-4C22-869D-FD1351E5C2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D373CFE5-C3FE-41B3-A1EE-E76B45A3139F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$204</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -80,613 +83,613 @@
     <t>CALL TARGET</t>
   </si>
   <si>
-    <t>Ruth Sitati</t>
-  </si>
-  <si>
-    <t>Monica Ndavi</t>
-  </si>
-  <si>
-    <t>Anna Amedi</t>
-  </si>
-  <si>
-    <t>Irene Njeri</t>
-  </si>
-  <si>
-    <t>Carolyne Achieng</t>
-  </si>
-  <si>
-    <t>Robinson Wycliffe</t>
-  </si>
-  <si>
-    <t>Elizabeth Ondieki</t>
-  </si>
-  <si>
-    <t>Pamela Jegugu</t>
-  </si>
-  <si>
-    <t>Sally Kwamboka</t>
-  </si>
-  <si>
-    <t>Rose Makhakha</t>
-  </si>
-  <si>
-    <t>Mary Wanjiru</t>
-  </si>
-  <si>
-    <t>Beryl Okeyo</t>
-  </si>
-  <si>
-    <t>Doreen Santana</t>
-  </si>
-  <si>
-    <t>Grace Waigwe</t>
-  </si>
-  <si>
-    <t>Belinda Auma</t>
-  </si>
-  <si>
-    <t>Timothy Ndakalu</t>
-  </si>
-  <si>
-    <t>Rodgers Otieno</t>
-  </si>
-  <si>
-    <t>Ann Wayua</t>
-  </si>
-  <si>
-    <t>Simon Onyango</t>
-  </si>
-  <si>
-    <t>Dan Simiyu</t>
-  </si>
-  <si>
-    <t>Lucy Muthoni</t>
-  </si>
-  <si>
-    <t>Ruth Njambi</t>
-  </si>
-  <si>
-    <t>Maurice Omolo</t>
-  </si>
-  <si>
-    <t>Josephat Abigah</t>
-  </si>
-  <si>
-    <t>Kennedy Ochieng</t>
-  </si>
-  <si>
-    <t>Josphat Munyoki</t>
-  </si>
-  <si>
-    <t>Meshack Muteti</t>
-  </si>
-  <si>
-    <t>Levy Makori</t>
-  </si>
-  <si>
-    <t>Maureen Njoroge</t>
-  </si>
-  <si>
-    <t>Daniel Odira</t>
-  </si>
-  <si>
-    <t>Felisha Njeri</t>
-  </si>
-  <si>
-    <t>Nicole Achieng</t>
-  </si>
-  <si>
-    <t>Sheila Lumumba</t>
-  </si>
-  <si>
-    <t>Speciostsa Faith</t>
-  </si>
-  <si>
-    <t>Janet Mutuse</t>
-  </si>
-  <si>
-    <t>David Muriithi</t>
-  </si>
-  <si>
-    <t>Judy Muli</t>
-  </si>
-  <si>
-    <t>Maurice Masaga</t>
-  </si>
-  <si>
-    <t>Lydiah Muthoni</t>
-  </si>
-  <si>
-    <t>Mercy Akinyi</t>
-  </si>
-  <si>
-    <t>Sharlen Ayuma</t>
-  </si>
-  <si>
-    <t>Jacklyn Atieno</t>
-  </si>
-  <si>
-    <t>Defence Mwambela</t>
-  </si>
-  <si>
-    <t>Dennis Ndunga</t>
-  </si>
-  <si>
-    <t>Aileen Makena</t>
-  </si>
-  <si>
-    <t>Alice Akinyi</t>
-  </si>
-  <si>
-    <t>Andrew Tindi</t>
-  </si>
-  <si>
-    <t>Devian Sharon</t>
-  </si>
-  <si>
-    <t>Edith Adhiambo</t>
-  </si>
-  <si>
-    <t>Juliana Orwa</t>
-  </si>
-  <si>
-    <t>Libabu Odhiambo</t>
-  </si>
-  <si>
-    <t>Milicent Oluoch</t>
-  </si>
-  <si>
-    <t>Macrine Atieno</t>
-  </si>
-  <si>
-    <t>Levis Oluoch</t>
-  </si>
-  <si>
-    <t>Sharon Auma</t>
-  </si>
-  <si>
-    <t>Lanoline Ogola</t>
-  </si>
-  <si>
-    <t>Adlight Munyuri</t>
-  </si>
-  <si>
-    <t>Chrisantus Atwoli</t>
-  </si>
-  <si>
-    <t>Alice Akwii</t>
-  </si>
-  <si>
-    <t>Brian Ndonga</t>
-  </si>
-  <si>
-    <t>Griffin Isaac</t>
-  </si>
-  <si>
-    <t>Teddy Mbugua</t>
-  </si>
-  <si>
-    <t>Beatrice Nzisa</t>
-  </si>
-  <si>
-    <t>Ruth Mwangi</t>
-  </si>
-  <si>
-    <t>Evalyhn Joy</t>
-  </si>
-  <si>
-    <t>Irene Onyango</t>
-  </si>
-  <si>
-    <t>Christine Ogero</t>
-  </si>
-  <si>
-    <t>Mauline Mmbone</t>
-  </si>
-  <si>
-    <t>Roselyn Ndila</t>
-  </si>
-  <si>
-    <t>Purity Rotich</t>
-  </si>
-  <si>
-    <t>Benard Makori</t>
-  </si>
-  <si>
-    <t>Brian Kitui</t>
-  </si>
-  <si>
-    <t>KELVIN SOKO</t>
-  </si>
-  <si>
-    <t>CHRISTINE WAWIRA</t>
-  </si>
-  <si>
-    <t>RAHAB WANGECHI</t>
-  </si>
-  <si>
-    <t>KELVIN NYIKA</t>
-  </si>
-  <si>
-    <t>PHILOMENA WOKI</t>
-  </si>
-  <si>
-    <t>MARTHA BOSIBORI</t>
-  </si>
-  <si>
-    <t>SIMON WANYOIKE</t>
-  </si>
-  <si>
-    <t>BENARD NJOROGE</t>
-  </si>
-  <si>
-    <t>JAPHETH KIBET</t>
-  </si>
-  <si>
-    <t>VICTOR ODHIAMBO</t>
-  </si>
-  <si>
-    <t>BETH GACUGI</t>
-  </si>
-  <si>
-    <t>CONRAD MULAMA</t>
-  </si>
-  <si>
-    <t>SHARLY OTIENO</t>
-  </si>
-  <si>
-    <t>MONICAH LAUZI</t>
-  </si>
-  <si>
-    <t>BILLY BRIAN</t>
-  </si>
-  <si>
-    <t>CORNELIUS KISANYA</t>
-  </si>
-  <si>
-    <t>BENADETTE WANJIRU</t>
-  </si>
-  <si>
-    <t>PRISCIA ACHOLA</t>
-  </si>
-  <si>
-    <t>JEANNE ALTMANN</t>
-  </si>
-  <si>
-    <t>SARAH NJOKI</t>
-  </si>
-  <si>
-    <t>ROSELYNE MBUTO</t>
-  </si>
-  <si>
-    <t>CECILIA AMOLO</t>
-  </si>
-  <si>
-    <t>EMILY GISEMBA</t>
-  </si>
-  <si>
-    <t>DORCAS KEMUNTO</t>
-  </si>
-  <si>
-    <t>MARION WAFULA</t>
-  </si>
-  <si>
-    <t>TRIZER ANYANGO</t>
-  </si>
-  <si>
-    <t>EMILLY OLUOCH</t>
-  </si>
-  <si>
-    <t>EVALYHN JOY</t>
-  </si>
-  <si>
-    <t>Alvin Mbaisi</t>
-  </si>
-  <si>
-    <t>Austine Orieko</t>
-  </si>
-  <si>
-    <t>Brian Maina</t>
-  </si>
-  <si>
-    <t>Caroline Muema</t>
-  </si>
-  <si>
-    <t>Cecilia Keru</t>
-  </si>
-  <si>
-    <t>Danielson Owino</t>
-  </si>
-  <si>
-    <t>Davis Khasija</t>
-  </si>
-  <si>
-    <t>Doris Nyabuto</t>
-  </si>
-  <si>
-    <t>Ephantus Thandi</t>
-  </si>
-  <si>
-    <t>Ephantus Mwangi</t>
-  </si>
-  <si>
-    <t>Faith Silole</t>
-  </si>
-  <si>
-    <t>Hannah Wangui</t>
-  </si>
-  <si>
-    <t>Immaculate Kanani</t>
-  </si>
-  <si>
-    <t>Isaac Ngomo</t>
-  </si>
-  <si>
-    <t>Jacktone Ochieng</t>
-  </si>
-  <si>
-    <t>Jacob Omondi</t>
-  </si>
-  <si>
-    <t>Jeremiah Matini</t>
-  </si>
-  <si>
-    <t>Joan Chepkoech</t>
-  </si>
-  <si>
-    <t>Joyce Atieno</t>
-  </si>
-  <si>
-    <t>Keziah Wambui</t>
-  </si>
-  <si>
-    <t>Kipkoech Ngeno</t>
-  </si>
-  <si>
-    <t>Laurine Okeya</t>
-  </si>
-  <si>
-    <t>Lucy Wahome</t>
-  </si>
-  <si>
-    <t>Marion Soita</t>
-  </si>
-  <si>
-    <t>Mercy Waititu</t>
-  </si>
-  <si>
-    <t>Neema Achieng</t>
-  </si>
-  <si>
-    <t>Rachael Wanjiru</t>
-  </si>
-  <si>
-    <t>Samuel Muturi</t>
-  </si>
-  <si>
-    <t>Sheila Mathenge</t>
-  </si>
-  <si>
-    <t>Simon Mwangi</t>
-  </si>
-  <si>
-    <t>Simphrose Mulaah</t>
-  </si>
-  <si>
-    <t>Stephen Njoroge</t>
-  </si>
-  <si>
-    <t>Sylvester Ochieng</t>
-  </si>
-  <si>
-    <t>Victor Otieno</t>
-  </si>
-  <si>
-    <t>Victor Kipkoech</t>
-  </si>
-  <si>
-    <t>Erick Okoth</t>
-  </si>
-  <si>
-    <t>Richard Okoth</t>
-  </si>
-  <si>
-    <t>Rose Akoth</t>
-  </si>
-  <si>
-    <t>Vincent Otieno</t>
-  </si>
-  <si>
-    <t>Nancy Mactain</t>
-  </si>
-  <si>
-    <t>Edwin Njenga</t>
-  </si>
-  <si>
-    <t>Beatrice Akinyi</t>
-  </si>
-  <si>
-    <t>Christine Jamenya</t>
-  </si>
-  <si>
-    <t>Oyoo Felix</t>
-  </si>
-  <si>
-    <t>Nevil Adeya</t>
-  </si>
-  <si>
-    <t>Willis Ochieng</t>
-  </si>
-  <si>
-    <t>Jackline Kajuju</t>
-  </si>
-  <si>
-    <t>Joseph Okuro</t>
-  </si>
-  <si>
-    <t>Newton Wawire</t>
-  </si>
-  <si>
-    <t>Amon Mwangi</t>
-  </si>
-  <si>
-    <t>Esther Gesare</t>
-  </si>
-  <si>
-    <t>Brian Ambeyi</t>
-  </si>
-  <si>
-    <t>Samuel Wahome</t>
-  </si>
-  <si>
-    <t>George Onyango</t>
-  </si>
-  <si>
-    <t>Phyllis Manza</t>
-  </si>
-  <si>
-    <t>Laura Iravusa</t>
-  </si>
-  <si>
-    <t>Godwin Shikuku</t>
-  </si>
-  <si>
-    <t>Isaac Asalikhu</t>
-  </si>
-  <si>
-    <t>Collins Awuor</t>
-  </si>
-  <si>
-    <t>Emily Mirenja</t>
-  </si>
-  <si>
-    <t>Hellen Njeru</t>
-  </si>
-  <si>
-    <t>Vincent Kipkirui</t>
-  </si>
-  <si>
-    <t>Faith Akinyi</t>
-  </si>
-  <si>
-    <t>Derick Mugodo</t>
-  </si>
-  <si>
-    <t>Alex Murimi</t>
-  </si>
-  <si>
-    <t>Alphonce Okoth</t>
-  </si>
-  <si>
-    <t>George Nandwa</t>
-  </si>
-  <si>
-    <t>Florence Ayesa</t>
-  </si>
-  <si>
-    <t>Getray Muchele</t>
-  </si>
-  <si>
-    <t>Briden Musonga</t>
-  </si>
-  <si>
-    <t>Judith Lukania</t>
-  </si>
-  <si>
-    <t>Monica Amondi</t>
-  </si>
-  <si>
-    <t>Elizabeth Wanjiku</t>
-  </si>
-  <si>
-    <t>Clementina Muthoki</t>
-  </si>
-  <si>
-    <t>Michael Osinga</t>
-  </si>
-  <si>
-    <t>Praxides Mukami</t>
-  </si>
-  <si>
-    <t>Raymond Nyakundi</t>
-  </si>
-  <si>
-    <t>Teddy Ian</t>
-  </si>
-  <si>
-    <t>Philip Wambugu</t>
-  </si>
-  <si>
-    <t>Teresia Wanjiku</t>
-  </si>
-  <si>
-    <t>Mercy Waweru</t>
-  </si>
-  <si>
-    <t>Colleta Rasugu</t>
-  </si>
-  <si>
-    <t>Blandine Nekesa</t>
-  </si>
-  <si>
-    <t>Reginah Wambui</t>
-  </si>
-  <si>
-    <t>Shadrack Wafula</t>
-  </si>
-  <si>
-    <t>Daniel Samuel</t>
-  </si>
-  <si>
-    <t>Joshua Ogweno</t>
-  </si>
-  <si>
-    <t>Ronaldo Kabiru</t>
-  </si>
-  <si>
-    <t>Cynthia Achieng</t>
-  </si>
-  <si>
-    <t>Lydiah Achieng</t>
-  </si>
-  <si>
-    <t>Lilian Wairimu</t>
-  </si>
-  <si>
-    <t>Rossette Namayi</t>
-  </si>
-  <si>
-    <t>Loyd Munene</t>
-  </si>
-  <si>
-    <t>Purity Simbole</t>
-  </si>
-  <si>
-    <t>Keith Idambila</t>
-  </si>
-  <si>
-    <t>Pricilla nasike</t>
-  </si>
-  <si>
-    <t>John Kariuki</t>
-  </si>
-  <si>
-    <t>Stephen Kyenze</t>
-  </si>
-  <si>
-    <t>James Njoroge</t>
-  </si>
-  <si>
-    <t>Nancy Oranga</t>
-  </si>
-  <si>
-    <t>Ronald Ouma</t>
-  </si>
-  <si>
-    <t>Joshua Mishael</t>
-  </si>
-  <si>
-    <t>Caroline Mukami</t>
+    <t>Ruth  Sitati</t>
+  </si>
+  <si>
+    <t>Monica  Ndavi</t>
+  </si>
+  <si>
+    <t>Anna  Amedi</t>
+  </si>
+  <si>
+    <t>Irene  Njeri</t>
+  </si>
+  <si>
+    <t>Carolyne  Achieng</t>
+  </si>
+  <si>
+    <t>Robinson  Wycliffe</t>
+  </si>
+  <si>
+    <t>Elizabeth  Ondieki</t>
+  </si>
+  <si>
+    <t>Pamela  Jegugu</t>
+  </si>
+  <si>
+    <t>Sally  Kwamboka</t>
+  </si>
+  <si>
+    <t>Rose  Makhakha</t>
+  </si>
+  <si>
+    <t>Mary  Wanjiru</t>
+  </si>
+  <si>
+    <t>Beryl  Okeyo</t>
+  </si>
+  <si>
+    <t>Doreen  Santana</t>
+  </si>
+  <si>
+    <t>Grace  Waigwe</t>
+  </si>
+  <si>
+    <t>Belinda  Auma</t>
+  </si>
+  <si>
+    <t>Timothy  Ndakalu</t>
+  </si>
+  <si>
+    <t>Rodgers  Otieno</t>
+  </si>
+  <si>
+    <t>Ann  Wayua</t>
+  </si>
+  <si>
+    <t>Simon  Onyango</t>
+  </si>
+  <si>
+    <t>Dan  Simiyu</t>
+  </si>
+  <si>
+    <t>Lucy  Muthoni</t>
+  </si>
+  <si>
+    <t>Ruth  Njambi</t>
+  </si>
+  <si>
+    <t>Maurice  Omolo</t>
+  </si>
+  <si>
+    <t>Josephat  Abigah</t>
+  </si>
+  <si>
+    <t>Kennedy  Ochieng</t>
+  </si>
+  <si>
+    <t>Josphat  Munyoki</t>
+  </si>
+  <si>
+    <t>Meshack  Muteti</t>
+  </si>
+  <si>
+    <t>Levy  Makori</t>
+  </si>
+  <si>
+    <t>Maureen  Njoroge</t>
+  </si>
+  <si>
+    <t>Daniel  Odira</t>
+  </si>
+  <si>
+    <t>Felisha  Njeri</t>
+  </si>
+  <si>
+    <t>Nicole  Achieng</t>
+  </si>
+  <si>
+    <t>Sheila  Lumumba</t>
+  </si>
+  <si>
+    <t>Speciostsa  Faith</t>
+  </si>
+  <si>
+    <t>Janet  Mutuse</t>
+  </si>
+  <si>
+    <t>David  Muriithi</t>
+  </si>
+  <si>
+    <t>Judy  Muli</t>
+  </si>
+  <si>
+    <t>Maurice  Masaga</t>
+  </si>
+  <si>
+    <t>Lydiah  Muthoni</t>
+  </si>
+  <si>
+    <t>Mercy  Akinyi</t>
+  </si>
+  <si>
+    <t>Sharlen  Ayuma</t>
+  </si>
+  <si>
+    <t>Jacklyn  Atieno</t>
+  </si>
+  <si>
+    <t>Defence  Mwambela</t>
+  </si>
+  <si>
+    <t>Dennis  Ndunga</t>
+  </si>
+  <si>
+    <t>Aileen  Makena</t>
+  </si>
+  <si>
+    <t>Alice  Akinyi</t>
+  </si>
+  <si>
+    <t>Andrew  Tindi</t>
+  </si>
+  <si>
+    <t>Devian  Sharon</t>
+  </si>
+  <si>
+    <t>Edith  Adhiambo</t>
+  </si>
+  <si>
+    <t>Juliana  Orwa</t>
+  </si>
+  <si>
+    <t>Libabu  Odhiambo</t>
+  </si>
+  <si>
+    <t>Milicent  Oluoch</t>
+  </si>
+  <si>
+    <t>Macrine  Atieno</t>
+  </si>
+  <si>
+    <t>Levis  Oluoch</t>
+  </si>
+  <si>
+    <t>Sharon  Auma</t>
+  </si>
+  <si>
+    <t>Lanoline  Ogola</t>
+  </si>
+  <si>
+    <t>Adlight  Munyuri</t>
+  </si>
+  <si>
+    <t>Chrisantus  Atwoli</t>
+  </si>
+  <si>
+    <t>Alice  Akwii</t>
+  </si>
+  <si>
+    <t>Brian  Ndonga</t>
+  </si>
+  <si>
+    <t>Griffin  Isaac</t>
+  </si>
+  <si>
+    <t>Teddy  Mbugua</t>
+  </si>
+  <si>
+    <t>Beatrice  Nzisa</t>
+  </si>
+  <si>
+    <t>Ruth  Mwangi</t>
+  </si>
+  <si>
+    <t>Evalyhn  Joy</t>
+  </si>
+  <si>
+    <t>Irene  Onyango</t>
+  </si>
+  <si>
+    <t>Christine  Ogero</t>
+  </si>
+  <si>
+    <t>Mauline  Mmbone</t>
+  </si>
+  <si>
+    <t>Roselyn  Ndila</t>
+  </si>
+  <si>
+    <t>Purity  Rotich</t>
+  </si>
+  <si>
+    <t>Benard  Makori</t>
+  </si>
+  <si>
+    <t>Brian  Kitui</t>
+  </si>
+  <si>
+    <t>KELVIN  SOKO</t>
+  </si>
+  <si>
+    <t>CHRISTINE  WAWIRA</t>
+  </si>
+  <si>
+    <t>RAHAB  WANGECHI</t>
+  </si>
+  <si>
+    <t>KELVIN  NYIKA</t>
+  </si>
+  <si>
+    <t>PHILOMENA  WOKI</t>
+  </si>
+  <si>
+    <t>MARTHA  BOSIBORI</t>
+  </si>
+  <si>
+    <t>SIMON  WANYOIKE</t>
+  </si>
+  <si>
+    <t>BENARD  NJOROGE</t>
+  </si>
+  <si>
+    <t>JAPHETH  KIBET</t>
+  </si>
+  <si>
+    <t>VICTOR  ODHIAMBO</t>
+  </si>
+  <si>
+    <t>BETH  GACUGI</t>
+  </si>
+  <si>
+    <t>CONRAD  MULAMA</t>
+  </si>
+  <si>
+    <t>SHARLY  OTIENO</t>
+  </si>
+  <si>
+    <t>MONICAH  LAUZI</t>
+  </si>
+  <si>
+    <t>BILLY  BRIAN</t>
+  </si>
+  <si>
+    <t>CORNELIUS  KISANYA</t>
+  </si>
+  <si>
+    <t>BENADETTE  WANJIRU</t>
+  </si>
+  <si>
+    <t>PRISCIA  ACHOLA</t>
+  </si>
+  <si>
+    <t>JEANNE  ALTMANN</t>
+  </si>
+  <si>
+    <t>SARAH  NJOKI</t>
+  </si>
+  <si>
+    <t>ROSELYNE  MBUTO</t>
+  </si>
+  <si>
+    <t>CECILIA  AMOLO</t>
+  </si>
+  <si>
+    <t>EMILY  GISEMBA</t>
+  </si>
+  <si>
+    <t>DORCAS  KEMUNTO</t>
+  </si>
+  <si>
+    <t>MARION  WAFULA</t>
+  </si>
+  <si>
+    <t>TRIZER  ANYANGO</t>
+  </si>
+  <si>
+    <t>EMILLY  OLUOCH</t>
+  </si>
+  <si>
+    <t>EVALYHN  JOY</t>
+  </si>
+  <si>
+    <t>Alvin  Mbaisi</t>
+  </si>
+  <si>
+    <t>Austine  Orieko</t>
+  </si>
+  <si>
+    <t>Brian  Maina</t>
+  </si>
+  <si>
+    <t>Caroline  Muema</t>
+  </si>
+  <si>
+    <t>Cecilia  Keru</t>
+  </si>
+  <si>
+    <t>Danielson  Owino</t>
+  </si>
+  <si>
+    <t>Davis  Khasija</t>
+  </si>
+  <si>
+    <t>Doris  Nyabuto</t>
+  </si>
+  <si>
+    <t>Ephantus  Thandi</t>
+  </si>
+  <si>
+    <t>Ephantus  Mwangi</t>
+  </si>
+  <si>
+    <t>Faith  Silole</t>
+  </si>
+  <si>
+    <t>Hannah  Wangui</t>
+  </si>
+  <si>
+    <t>Immaculate  Kanani</t>
+  </si>
+  <si>
+    <t>Isaac  Ngomo</t>
+  </si>
+  <si>
+    <t>Jacktone  Ochieng</t>
+  </si>
+  <si>
+    <t>Jacob  Omondi</t>
+  </si>
+  <si>
+    <t>Jeremiah  Matini</t>
+  </si>
+  <si>
+    <t>Joan  Chepkoech</t>
+  </si>
+  <si>
+    <t>Joyce  Atieno</t>
+  </si>
+  <si>
+    <t>Keziah  Wambui</t>
+  </si>
+  <si>
+    <t>Kipkoech  Ngeno</t>
+  </si>
+  <si>
+    <t>Laurine  Okeya</t>
+  </si>
+  <si>
+    <t>Lucy  Wahome</t>
+  </si>
+  <si>
+    <t>Marion  Soita</t>
+  </si>
+  <si>
+    <t>Mercy  Waititu</t>
+  </si>
+  <si>
+    <t>Neema  Achieng</t>
+  </si>
+  <si>
+    <t>Rachael  Wanjiru</t>
+  </si>
+  <si>
+    <t>Samuel  Muturi</t>
+  </si>
+  <si>
+    <t>Sheila  Mathenge</t>
+  </si>
+  <si>
+    <t>Simon  Mwangi</t>
+  </si>
+  <si>
+    <t>Simphrose  Mulaah</t>
+  </si>
+  <si>
+    <t>Stephen  Njoroge</t>
+  </si>
+  <si>
+    <t>Sylvester  Ochieng</t>
+  </si>
+  <si>
+    <t>Victor  Otieno</t>
+  </si>
+  <si>
+    <t>Victor  Kipkoech</t>
+  </si>
+  <si>
+    <t>Erick  Okoth</t>
+  </si>
+  <si>
+    <t>Richard  Okoth</t>
+  </si>
+  <si>
+    <t>Rose  Akoth</t>
+  </si>
+  <si>
+    <t>Vincent  Otieno</t>
+  </si>
+  <si>
+    <t>Nancy  Mactain</t>
+  </si>
+  <si>
+    <t>Edwin  Njenga</t>
+  </si>
+  <si>
+    <t>Beatrice  Akinyi</t>
+  </si>
+  <si>
+    <t>Christine  Jamenya</t>
+  </si>
+  <si>
+    <t>Oyoo  Felix</t>
+  </si>
+  <si>
+    <t>Nevil  Adeya</t>
+  </si>
+  <si>
+    <t>Willis  Ochieng</t>
+  </si>
+  <si>
+    <t>Jackline  Kajuju</t>
+  </si>
+  <si>
+    <t>Joseph  Okuro</t>
+  </si>
+  <si>
+    <t>Newton  Wawire</t>
+  </si>
+  <si>
+    <t>Amon  Mwangi</t>
+  </si>
+  <si>
+    <t>Esther  Gesare</t>
+  </si>
+  <si>
+    <t>Brian  Ambeyi</t>
+  </si>
+  <si>
+    <t>Samuel  Wahome</t>
+  </si>
+  <si>
+    <t>George  Onyango</t>
+  </si>
+  <si>
+    <t>Phyllis  Manza</t>
+  </si>
+  <si>
+    <t>Laura  Iravusa</t>
+  </si>
+  <si>
+    <t>Godwin  Shikuku</t>
+  </si>
+  <si>
+    <t>Isaac  Asalikhu</t>
+  </si>
+  <si>
+    <t>Collins  Awuor</t>
+  </si>
+  <si>
+    <t>Emily  Mirenja</t>
+  </si>
+  <si>
+    <t>Hellen  Njeru</t>
+  </si>
+  <si>
+    <t>Vincent  Kipkirui</t>
+  </si>
+  <si>
+    <t>Faith  Akinyi</t>
+  </si>
+  <si>
+    <t>Derick  Mugodo</t>
+  </si>
+  <si>
+    <t>Alex  Murimi</t>
+  </si>
+  <si>
+    <t>Alphonce  Okoth</t>
+  </si>
+  <si>
+    <t>George  Nandwa</t>
+  </si>
+  <si>
+    <t>Florence  Ayesa</t>
+  </si>
+  <si>
+    <t>Getray  Muchele</t>
+  </si>
+  <si>
+    <t>Briden  Musonga</t>
+  </si>
+  <si>
+    <t>Judith  Lukania</t>
+  </si>
+  <si>
+    <t>Monica  Amondi</t>
+  </si>
+  <si>
+    <t>Elizabeth  Wanjiku</t>
+  </si>
+  <si>
+    <t>Clementina  Muthoki</t>
+  </si>
+  <si>
+    <t>Michael  Osinga</t>
+  </si>
+  <si>
+    <t>Praxides  Mukami</t>
+  </si>
+  <si>
+    <t>Raymond  Nyakundi</t>
+  </si>
+  <si>
+    <t>Teddy  Ian</t>
+  </si>
+  <si>
+    <t>Philip  Wambugu</t>
+  </si>
+  <si>
+    <t>Teresia  Wanjiku</t>
+  </si>
+  <si>
+    <t>Mercy  Waweru</t>
+  </si>
+  <si>
+    <t>Colleta  Rasugu</t>
+  </si>
+  <si>
+    <t>Blandine  Nekesa</t>
+  </si>
+  <si>
+    <t>Reginah  Wambui</t>
+  </si>
+  <si>
+    <t>Shadrack  Wafula</t>
+  </si>
+  <si>
+    <t>Daniel  Samuel</t>
+  </si>
+  <si>
+    <t>Joshua  Ogweno</t>
+  </si>
+  <si>
+    <t>Ronaldo  Kabiru</t>
+  </si>
+  <si>
+    <t>Cynthia  Achieng</t>
+  </si>
+  <si>
+    <t>Lydiah  Achieng</t>
+  </si>
+  <si>
+    <t>Lilian  Wairimu</t>
+  </si>
+  <si>
+    <t>Rossette  Namayi</t>
+  </si>
+  <si>
+    <t>Loyd  Munene</t>
+  </si>
+  <si>
+    <t>Purity  Simbole</t>
+  </si>
+  <si>
+    <t>Keith  Idambila</t>
+  </si>
+  <si>
+    <t>Pricilla  nasike</t>
+  </si>
+  <si>
+    <t>John  Kariuki</t>
+  </si>
+  <si>
+    <t>Stephen  Kyenze</t>
+  </si>
+  <si>
+    <t>James  Njoroge</t>
+  </si>
+  <si>
+    <t>Nancy  Oranga</t>
+  </si>
+  <si>
+    <t>Ronald  Ouma</t>
+  </si>
+  <si>
+    <t>Joshua  Mishael</t>
+  </si>
+  <si>
+    <t>Caroline  Mukami</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1062,7 @@
   <dimension ref="A1:C204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3314,6 +3317,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C204" xr:uid="{80073D58-64F8-4FD4-8648-F8E166B7E4C7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>